--- a/class.xlsx
+++ b/class.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="1562">
   <si>
     <t>main-header</t>
   </si>
@@ -2087,9 +2087,6 @@
 }</t>
   </si>
   <si>
-    <t>background-image: url("img/bottle.svg");</t>
-  </si>
-  <si>
     <r>
       <t>Помимо CSS-правил (rule sets) в языке существуют так называемые «</t>
     </r>
@@ -3161,42 +3158,6 @@
   </si>
   <si>
     <t>насыщенность или толщина шрифта</t>
-  </si>
-  <si>
-    <t>фоновое изображение</t>
-  </si>
-  <si>
-    <t>фоновый цвет</t>
-  </si>
-  <si>
-    <t>background-color: rgba(0, 0, 0, 0.5);</t>
-  </si>
-  <si>
-    <t>background-color: transparent;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>прозрачный</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> фон</t>
-    </r>
   </si>
   <si>
     <t>font-size: 1cm;  /* 1 сантиметр  */
@@ -11432,15 +11393,6 @@
     <t>Элементу можно одновременно задавать и цвет фона, и фоновую картинку. В этом случае картинка будет отображаться поверх фонового цвета.</t>
   </si>
   <si>
-    <t>По умолчанию фоновое изображение повторяется.</t>
-  </si>
-  <si>
-    <t>background-repeat: no-repeat;</t>
-  </si>
-  <si>
-    <t>background-position: center;</t>
-  </si>
-  <si>
     <t>По умолчанию фоновое изображение повторяется. Это хорошо заметно, когда оно меньше блока. Управлять этим поведением можно с помощью CSS-свойства background-repeat. У свойства 4 значения:</t>
   </si>
   <si>
@@ -11448,9 +11400,6 @@
 repeat-x — повторять только по горизонтали.
 repeat-y — повторять только по вертикали.
 no-repeat — не повторять.</t>
-  </si>
-  <si>
-    <t>управляет расположением фонового изображения</t>
   </si>
   <si>
     <t>Свойство background-position управляет расположением фонового изображения. Значение свойства состоит из двух частей, разделенных пробелом: x y.</t>
@@ -11475,12 +11424,6 @@
 Кстати, можно использовать не только положительные, но и отрицательные значения. А также комбинировать пиксели и проценты.</t>
   </si>
   <si>
-    <t>background-attachment: fixed;</t>
-  </si>
-  <si>
-    <t>фон не прокручивается, зафиксирован на одном месте.</t>
-  </si>
-  <si>
     <t>С помощью свойства background-attachment можно зафиксировать фон на месте и он не будет перемещаться при прокручивании.</t>
   </si>
   <si>
@@ -11488,24 +11431,10 @@
 fixed — фон не прокручивается, зафиксирован на одном месте.</t>
   </si>
   <si>
-    <t>background: [bc] [bi] [br] [bp] [ba];
-[bc] — background-color
-[bi] — background-image
-[br] — background-repeat
-[bp] — background-position
-[ba] — background-attachment</t>
-  </si>
-  <si>
     <t>Также задать фон можно с помощью сокращенного свойства background, в котором через пробел перечисляются его компоненты</t>
   </si>
   <si>
     <t>Если какой-то компонент не указан, то берется значение по умолчанию:</t>
-  </si>
-  <si>
-    <t>background: #e74c3c;</t>
-  </si>
-  <si>
-    <t>просто задан цвет фона.</t>
   </si>
   <si>
     <t>background: url("img.png") no-repeat;</t>
@@ -11530,13 +11459,6 @@
   <si>
     <t>Фоны вложенных элементов перекрывают друг друга: чем глубже элемент, тем выше его фон.
 Кстати, для удобства ширину лучше задавать внешнему элементу (так как все вложенные будут той же ширины), а высоту самому глубокому, так как он растянет по высоте всех своих родителей.</t>
-  </si>
-  <si>
-    <t>Эффекты с повторяющимся фоном
-Повторяющийся фон, тот у которого repeat, repeat-x или repeat-y, часто используется для создания интересных декоративных эффектов.
-стежки;
-зазубренные края;
-градиенты и тени.</t>
   </si>
   <si>
     <t>Да, сейчас уже градиенты и тени можно делать с помощью CSS. Но иногда, когда тень или градиент достаточно сложные, проще использовать полупрозрачный PNG.
@@ -24723,13 +24645,6 @@
     </r>
   </si>
   <si>
-    <t>border-radius: 1px 2px 3px 4px;
-1px - верхний левый угол
-2px - верхний правый угол
-3px - нижний правый угол
-4px - нижний левый угол</t>
-  </si>
-  <si>
     <t>Теперь давайте добавим нумерацию ссылок. Для этого используем оставшийся свободным псевдоэлемент ::before.</t>
   </si>
   <si>
@@ -25025,6 +24940,351 @@
   </si>
   <si>
     <t>При наведении на кнопку давайте будем динамически поворачивать вокруг своей оси иконку и одновременно немного её увеличивать.</t>
+  </si>
+  <si>
+    <t>.btn-green .icon {
+  transition: all 0.4s ease-in-out;
+}</t>
+  </si>
+  <si>
+    <t>.btn-green:hover .icon {
+  transform: rotate(360deg) scale(1.2);
+}</t>
+  </si>
+  <si>
+    <t>Эффекты при наведении: кнопки — часть 2</t>
+  </si>
+  <si>
+    <t>Создадим вторую кнопку с немного другим эффектом у иконки: при наведении иконка должна увеличиваться и одновременно становиться полностью прозрачной, а на её месте синхронно будет появляться дополнительный скрытый блок с ценой .hidden.</t>
+  </si>
+  <si>
+    <t>Здесь будет использован плавный переход между двумя значениями прозрачности opacity и transform: scale.</t>
+  </si>
+  <si>
+    <t>Свойство opacity управляет прозрачностью элемента и принимает в качестве значения числа от 0 до 1. При этом 0 делает элемент полностью прозрачным, то есть невидимым, а 1 — полностью непрозрачным, то есть видимым.</t>
+  </si>
+  <si>
+    <t>&lt;button class="btn-yellow" type="button"&gt;
+  &lt;span class="hidden"&gt;25&lt;img src="icons/dollar-6x-white.png" alt="Иконка доллара"&gt;&lt;/span&gt;
+  &lt;img class="icon" src="icons/cart-6x-white.png" alt="Иконка корзины"&gt; Купить
+&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>.btn-yellow .icon {
+  transition: all 0.4s ease-in-out;
+}</t>
+  </si>
+  <si>
+    <t>.btn-yellow:hover .hidden {
+  transition: opacity 0.2s ease-in-out;
+  opacity: 1;
+}</t>
+  </si>
+  <si>
+    <t>.btn-yellow:hover .icon {
+  opacity: 0;
+  transform: scale(10);
+}</t>
+  </si>
+  <si>
+    <t>Эффекты при наведении: кнопки — часть 3</t>
+  </si>
+  <si>
+    <t>Ещё одна кнопка и ещё один эффект, похожий на предыдущие: при наведении давайте будем плавно скрывать иконку свойством opacity и одновременно показывать скрытый блок .hidden.</t>
+  </si>
+  <si>
+    <t>При этом можно ещё дополнить эффект тем, что скрытый блок будет изначально «схлопнут» свойством scale до нуля, и при появлении он будет увеличиваться вместе с увеличением непрозрачности.</t>
+  </si>
+  <si>
+    <t>&lt;button class="btn-blue" type="button"&gt;
+  &lt;span class="hidden"&gt;&lt;img src="icons/envelope-open-6x-white.png" alt="Иконка открытого конверта"&gt;&lt;/span&gt;
+  &lt;img class="icon" src="icons/envelope-closed-6x-white.png" alt="Иконка закрытого конверта"&gt; Прочитать
+&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button class="btn-green" type="button"&gt;
+  &lt;img class="icon" src="icons/reload-6x-white.png" alt="Иконка перезагрузки"&gt; Обновить
+&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>.btn-blue .icon {
+  transition: all 0.2s ease-in-out;
+}</t>
+  </si>
+  <si>
+    <t>.btn-blue .hidden {
+  opacity: 0;
+  transform: scale(0);
+}</t>
+  </si>
+  <si>
+    <t>.btn-blue:hover .hidden {
+  opacity: 1;
+  transition: opacity 0.2s ease-in-out, transform 0.2s ease-in-out 0.1s;
+  transform: scale(1);
+}</t>
+  </si>
+  <si>
+    <t>.btn-blue:hover .icon {
+  opacity: 0;
+}</t>
+  </si>
+  <si>
+    <t>Эффекты при наведении: галерея</t>
+  </si>
+  <si>
+    <t>В любой ситуации, когда стоит задача плавно менять позицию или размеры блока, а также каким-либо способом менять его внешний вид, встаёт выбор: пользоваться связкой transition + transform или же задействовать javascript и динамически менять ширину/высоту, координаты объектов в скрипте.</t>
+  </si>
+  <si>
+    <t>Зачастую выбор падает на JS-реализацию с помощью библиотеки jQuery, но в большинстве случаев «чистая» CSS-реализация простых визуальных эффектов намного производительнее аналогичных jQuery-функций.</t>
+  </si>
+  <si>
+    <t>Кроме того, в ряде случаев определённые трансформации в CSS могут для повышения производительности задействовать не только центральный процессор компьютера или мобильного девайса, но и ресурсы графического адаптера, что позволяет разгрузить процессор и избавиться от «тормознутости» эффектов.</t>
+  </si>
+  <si>
+    <t>С помощью трансформации и плавных переходов давайте реализуем простую мини-галерею картинок, которые увеличиваются и становятся полупрозрачными при наведении.</t>
+  </si>
+  <si>
+    <t>.deck img {
+  transition: all 0.1s linear;
+}</t>
+  </si>
+  <si>
+    <t>.deck img:hover {
+  opacity: 0.6;
+  transform: scale(1.1);
+}</t>
+  </si>
+  <si>
+    <t>background-image: url("img/bottle.svg");    //фоновое изображение</t>
+  </si>
+  <si>
+    <t>background-color: rgba(0, 0, 0, 0.5);    //фоновый цвет</t>
+  </si>
+  <si>
+    <t>background-color: transparent;    //прозрачный фон</t>
+  </si>
+  <si>
+    <t>background-position: center;    //управляет расположением фонового изображения</t>
+  </si>
+  <si>
+    <t>background-repeat: no-repeat;    //По умолчанию фоновое изображение повторяется.</t>
+  </si>
+  <si>
+    <t>background-attachment: fixed;    //фон не прокручивается, зафиксирован на одном месте.</t>
+  </si>
+  <si>
+    <t>background: #e74c3c;    //просто задан цвет фона.</t>
+  </si>
+  <si>
+    <t>background: [bc] [bi] [br] [bp] [ba];
+[bc] — background-color
+[bi] — background-image</t>
+  </si>
+  <si>
+    <t>[br] — background-repeat
+[bp] — background-position
+[ba] — background-attachment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Эффекты с повторяющимся фоном</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Повторяющийся фон, тот у которого repeat, repeat-x или repeat-y, часто используется для создания интересных декоративных эффектов:</t>
+    </r>
+  </si>
+  <si>
+    <t>стежки;
+зазубренные края;
+градиенты и тени.</t>
+  </si>
+  <si>
+    <t>border-radius: 1px 2px 3px 4px;</t>
+  </si>
+  <si>
+    <t>1px - верхний левый угол
+2px - верхний правый угол
+3px - нижний правый угол
+4px - нижний левый угол</t>
+  </si>
+  <si>
+    <t>Размер фона</t>
+  </si>
+  <si>
+    <t>По умолчанию браузер не меняет размеры фонового изображения.</t>
+  </si>
+  <si>
+    <t>Для этого существует свойство background-size. Оно принимает в качестве значения два аргумента: первый — это ширина фонового изображения, второй — его высота. Второй аргумент необязательный. Если высота не указывается, то она определяется автоматически в зависимости от ширины и исходных пропорций. По умолчанию оба аргумента равны auto.</t>
+  </si>
+  <si>
+    <t>background-size: auto auto;   /* исходные ширина и высота изображения */
+background-size: 100px;       /* ширина 100px, высота пропорциональная */
+background-size: 100px 200px; /* ширина 100px, высота 200px */</t>
+  </si>
+  <si>
+    <t>Ещё два значения свойства background-size — это contain и cover.
+Значение contain работает так:</t>
+  </si>
+  <si>
+    <t>- пропорции изображения сохраняются;
+- изображению задаются максимально возможные размеры, при которых оно и по ширине, и по высоте полностью помещается в границы фона;
+- изображение может не закрывать всю фоновую область блока, если пропорции изображения и блока разные.</t>
+  </si>
+  <si>
+    <t>Значение cover работает иначе:</t>
+  </si>
+  <si>
+    <t>- пропорции изображения сохраняются;
+- изображению задаются минимально возможные размеры, при которых оно закроет всю фоновую область блока;
+- если пропорции изображения и блока разные, то часть изображения обрезается.</t>
+  </si>
+  <si>
+    <t>Границы фона</t>
+  </si>
+  <si>
+    <t>Ещё одно фоновое свойство — background-origin. Оно задаёт расположение и размеры области отображения фонового изображения и принимает три значения: padding-box, border-box и content-box.</t>
+  </si>
+  <si>
+    <t>Значение по умолчанию — padding-box. При этом значении область отображения фонового изображения соответствует внутренней области блока, не включая рамки.</t>
+  </si>
+  <si>
+    <t>При content-box область отображения соответствует только области содержимого, не включая рамки и внутренние отступы.</t>
+  </si>
+  <si>
+    <t>При border-box область отображения соответствует полному размеру блока, включая и рамки. Фоновое изображение начинается от внешнего края блока и закрывается рамками, если они заданы.</t>
+  </si>
+  <si>
+    <t>Обрезка фона</t>
+  </si>
+  <si>
+    <t>Свойство background-clip управляет тем, как обрезается фон. Причём обрезаются не только фоновые изображения, но и фоновый цвет.</t>
+  </si>
+  <si>
+    <t>Значения свойства такие же, как у background-origin: padding-box, border-box и content-box.</t>
+  </si>
+  <si>
+    <t>Значение border-box задано по умолчанию, при этом фоновое изображение совсем не обрезается.
+Значение padding-box обрежет фон по внутреннему краю области рамки.
+Значение content-box обрежет фон по краю области содержимого.</t>
+  </si>
+  <si>
+    <t>Множественный фон</t>
+  </si>
+  <si>
+    <t>Можно задать блоку несколько фоновых изображений одновременно. Для этого пути к изображениям в свойстве background-image или background перечисляются через запятую:</t>
+  </si>
+  <si>
+    <t>background-image: url("image-1.png"), url("image-2.png");</t>
+  </si>
+  <si>
+    <t>При этом выше будет то изображение, которое находится раньше в списке: image-1.png в примере будет выше image-2.png.</t>
+  </si>
+  <si>
+    <t>Значения других свойств для множественных фоновых изображений тоже задаются через запятую. Порядок значений должен соответствовать порядку фоновых картинок. Например:</t>
+  </si>
+  <si>
+    <t>/* для первой картинки масштабирование contain, для второй — 100px */
+background-size: contain, 100px;</t>
+  </si>
+  <si>
+    <t>/* для первой картинки позиционирование top, для второй — 100% */
+background-position: top, 100%;</t>
+  </si>
+  <si>
+    <t>Позиция фона от разных сторон</t>
+  </si>
+  <si>
+    <t>Интересная возможность background-position, о которой мы раньше не рассказывали — расположение фона можно задавать относительно любого угла блока, а не только от левого верхнего.</t>
+  </si>
+  <si>
+    <t>Чтобы указать от какой стороны отсчитывать расположение фона, нужно перед значением координат задать ключевые слова: top, right, bottom или left. Например:</t>
+  </si>
+  <si>
+    <t>/* по умолчанию координаты задаются для левого верхнего угла */
+background-position: 10px 50px; /* слева 10px, сверху 50px */</t>
+  </si>
+  <si>
+    <t>background-position: right 30px bottom 60px; /* справа 30px, снизу 60px */
+background-position: left 50px bottom 10px; /* слева 50px, снизу 10px */
+background-position: right 40px top 30px; /* справа 40px, сверху 30px */</t>
+  </si>
+  <si>
+    <t>Повторение фона: background-repeat: round</t>
+  </si>
+  <si>
+    <t>Два интересных, но малоизвестных значения привычного свойства background-repeat, которое задаёт повторение фона, — это round и space.</t>
+  </si>
+  <si>
+    <t>Значение свойства по умолчанию background-repeat: repeat просто повторяет фоновую картинку по всей ширине и высоте блока. Если части повторяющейся картинки не помещаются в ширину блока, то они просто обрезаются.</t>
+  </si>
+  <si>
+    <t>Если задать значение background-repeat: round, то повторяющиеся картинки по краям блока обрезаться не будут, а равномерно растянутся или сожмутся по всей ширине и высоте, чтобы занять оставшееся пространство.</t>
+  </si>
+  <si>
+    <t>Кстати, background-repeat принимает в качестве значения два аргумента: режим повторения по горизонтали и по вертикали. Если передать один параметр, то он применится к обоим направлениям. Например:</t>
+  </si>
+  <si>
+    <t>/* повторение фона repeat по горизонтали и вертикали */
+background-repeat: repeat;</t>
+  </si>
+  <si>
+    <t>/* повторение фона round по горизонтали и repeat по вертикали */
+background-repeat: round repeat;</t>
+  </si>
+  <si>
+    <t>Повторение фона: background-repeat: space</t>
+  </si>
+  <si>
+    <t>Режим повторения фона background-repeat: space похож на round, при нём части картинки тоже не обрезаются. Отличие в том, что повторяющиеся фоновые картинки не сжимаются или растягиваются, а для компенсации ширины блока между ними добавляется пустое пространство.</t>
+  </si>
+  <si>
+    <t>Внешняя рамка или outline</t>
+  </si>
+  <si>
+    <t>Полезное, но редко используемое свойство — внешняя рамка или outline.</t>
+  </si>
+  <si>
+    <t>Синтаксис outline схож с border. Но внешней рамке нельзя задать параметры отдельных сторон. Пример:</t>
+  </si>
+  <si>
+    <t>/* сплошная чёрная рамка толщиной 10px */
+outline: 10px solid black;</t>
+  </si>
+  <si>
+    <t>Это сокращённый синтаксис свойства outline. Есть и отдельные свойства:</t>
+  </si>
+  <si>
+    <t>outline-width: 10px;  /* толщина */
+outline-style: solid; /* стиль */
+outline-color: black; /* цвет */</t>
+  </si>
+  <si>
+    <t>Внешняя рамка всегда отображается снаружи элемента, не влияет на его размер и не занимает места, то есть отображается над другими элементами.</t>
+  </si>
+  <si>
+    <t>C помощью свойства outline-offset можно изменять расположение рамки. Положительное значение отодвигает рамку от внешнего края элемента, а отрицательное «втягивает» внутрь.</t>
+  </si>
+  <si>
+    <t>У outline-style те же значения, что и у border-style. Кстати, есть интересные типы рамок ridge и groove, они создают объёмные рамки.</t>
   </si>
 </sst>
 </file>
@@ -25212,7 +25472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -25353,6 +25613,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -25943,6 +26209,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1978269</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>160810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="21936808"/>
+          <a:ext cx="1978268" cy="1274502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2102827</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>14655</xdr:rowOff>
@@ -26118,7 +26433,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -26167,7 +26482,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -26627,7 +26942,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -26658,10 +26973,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="B21" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -26767,7 +27082,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -26971,7 +27286,7 @@
         <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -27049,58 +27364,58 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B87" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B88" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B89" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -27121,18 +27436,18 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B92" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B93" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -27140,7 +27455,7 @@
         <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -27148,63 +27463,63 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="B96" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B98" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="B99" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="B100" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B101" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B102" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -27217,98 +27532,98 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="B104" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B105" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="B106" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="B107" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="B108" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B109" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B110" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="B111" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B112" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="B113" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
       <c r="B114" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1403</v>
+        <v>1387</v>
       </c>
       <c r="B115" t="s">
-        <v>1404</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
@@ -27322,224 +27637,476 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1"/>
+    <col min="1" max="1" width="125.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="37" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>1407</v>
+    <row r="38" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="58" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="58" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="58" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="58" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="58" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="58" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="58" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="58" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="58" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="58" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="58" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="58" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="58" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="58" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="58" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="58" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="58" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="58" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="58" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="58" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="58" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="58" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="58" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="58" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="58" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="58" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="58" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="58" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="58" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="58" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="58" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="58" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="58" t="s">
+        <v>1561</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27558,617 +28125,617 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1299</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>1300</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
-        <v>1301</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>1302</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>1303</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>1304</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1309</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
-        <v>1313</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="53" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="53" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="53" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="53" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="53" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
-        <v>1347</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="53" t="s">
-        <v>1348</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>1349</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="53" t="s">
-        <v>1350</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
-        <v>1352</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="53" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="53" t="s">
-        <v>1354</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="53" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="53" t="s">
-        <v>1357</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="53" t="s">
-        <v>1358</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="53" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="53" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="53" t="s">
-        <v>1361</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="53" t="s">
-        <v>1363</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="53" t="s">
-        <v>1364</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>1365</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="53" t="s">
-        <v>1366</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>1367</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
-        <v>1369</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
-        <v>1370</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
-        <v>1371</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
-        <v>1372</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="53" t="s">
-        <v>1374</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="53" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="53" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
-        <v>1379</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
-        <v>1380</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
-        <v>1383</v>
+        <v>1367</v>
       </c>
     </row>
   </sheetData>
@@ -28197,197 +28764,197 @@
     </row>
     <row r="3" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -28395,57 +28962,57 @@
     </row>
     <row r="43" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -28453,397 +29020,397 @@
     </row>
     <row r="55" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -28892,20 +29459,20 @@
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -28930,15 +29497,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -28951,10 +29518,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="57"/>
+      <c r="A4" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28981,104 +29548,104 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -29133,10 +29700,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -29174,7 +29741,7 @@
         <v>153</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -29184,27 +29751,27 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>1411</v>
+        <v>1394</v>
       </c>
     </row>
   </sheetData>
@@ -29230,23 +29797,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
         <v>198</v>
-      </c>
-      <c r="B1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>129</v>
@@ -29254,128 +29821,128 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -29399,10 +29966,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -29426,475 +29993,475 @@
   <sheetData>
     <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -30051,7 +30618,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -30075,67 +30642,67 @@
   <sheetData>
     <row r="1" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -30157,37 +30724,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -30210,177 +30777,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -30404,378 +30971,378 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="B28" s="49"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="B31" s="50"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="B32" s="50"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="B33" s="50"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="B34" s="50"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="B35" s="48"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="B40" s="49"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="B41" s="50"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="B42" s="50"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>1240</v>
+        <v>1224</v>
       </c>
       <c r="B43" s="48"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="60"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="60"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="60"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="60"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="60"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="60"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="60"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="60"/>
     </row>
     <row r="54" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>1245</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -30803,137 +31370,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>1386</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>1387</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>1390</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>1391</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>1392</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>1393</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>1394</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>1396</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>1397</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>1402</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>1409</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1408</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1410</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
-        <v>1416</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -30945,10 +31512,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A89"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A108" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30958,162 +31525,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1425</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>1429</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1431</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
-        <v>1437</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
-        <v>1440</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>1441</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
-        <v>1444</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>1462</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>1463</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -31136,222 +31703,352 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
-        <v>1448</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
-        <v>1451</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>1453</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
-        <v>1454</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
-        <v>1455</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
-        <v>1456</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
-        <v>1458</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="s">
-        <v>1459</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1460</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="s">
-        <v>1461</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>1464</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1465</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
-        <v>1466</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
-        <v>1467</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
-        <v>1468</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="s">
-        <v>1469</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>1470</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
-        <v>1471</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="56" t="s">
-        <v>1474</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="56" t="s">
-        <v>1475</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>1476</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
-        <v>1477</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
-        <v>1478</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="56" t="s">
-        <v>1479</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>1480</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="56" t="s">
-        <v>1481</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="56" t="s">
-        <v>1482</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>1488</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="56" t="s">
-        <v>1483</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="56" t="s">
-        <v>1484</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="56" t="s">
-        <v>1485</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
-        <v>1486</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="56" t="s">
-        <v>1487</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>1489</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="56" t="s">
-        <v>1490</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="56" t="s">
-        <v>1491</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="56" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="57" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="57" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="57" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="57" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="57" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="57" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="57" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="57" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="57" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="57" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="57" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="57" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="57" t="s">
         <v>1492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="57" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="57" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="57" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="57" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="57" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="57" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="57" t="s">
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -31376,67 +32073,67 @@
   <sheetData>
     <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -31460,12 +32157,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="25" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31480,22 +32177,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B8" s="25"/>
     </row>
@@ -31506,39 +32203,39 @@
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -31548,7 +32245,7 @@
     </row>
     <row r="18" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
@@ -31558,42 +32255,42 @@
     </row>
     <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="45" x14ac:dyDescent="0.25">
@@ -31603,22 +32300,22 @@
     </row>
     <row r="29" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -31628,939 +32325,939 @@
     </row>
     <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="31" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="33" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="33" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="33" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="34" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="34" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="34" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="34" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="34" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="34" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="35" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="35" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="35" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="35" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="35" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="35" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="35" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="35" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="35" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="35" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="35" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="35" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="35" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="35" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="35" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="35" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="35" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="35" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="35" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="35" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="35" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="39" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="39" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="39" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="40" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="40" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="40" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="40" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="40" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="40" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="40" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="40" t="s">
-        <v>1142</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="40" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="40" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="40" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="40" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -32586,742 +33283,742 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="43" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="41" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="41" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="41" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="41" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="36" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>1054</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="36" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="39" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="39" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -33346,42 +34043,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
@@ -33389,510 +34086,510 @@
     </row>
     <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="176.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -33917,302 +34614,302 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>1111</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
-        <v>1115</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>1116</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
-        <v>1117</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>1121</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
-        <v>1122</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>1123</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>1124</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>1125</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
-        <v>1126</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>1127</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>1128</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>1129</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -34246,7 +34943,7 @@
     </row>
     <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -34299,32 +34996,32 @@
     </row>
     <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/class.xlsx
+++ b/class.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1695">
   <si>
     <t>main-header</t>
   </si>
@@ -25726,6 +25726,254 @@
   <si>
     <t>Селектор .hit + .miss применит стили к элементу с классом miss, так как перед ним есть элемент с классом hit.
 Селектор .hit + li, а также селектор li + .miss, или даже li + li тоже применит стили к элементу с классом miss, то есть ко второму элементу списка. А вот селектор .miss + .hit не сработает, так как элемент с классом miss находится после элемента с классом hit в разметке.</t>
+  </si>
+  <si>
+    <t>Селекторы. Тонкости</t>
+  </si>
+  <si>
+    <t>Ищем в начале строки: [foo^="bar"]</t>
+  </si>
+  <si>
+    <t>В первом части про селекторы мы разбирали селектор по атрибутам, когда запись input[type="text"] выберет все элементы input, у которых атрибут type равен text.</t>
+  </si>
+  <si>
+    <t>У этого механизма есть дополнительные возможности: можно выбирать элементы по вхождению подстроки в значение атрибута.</t>
+  </si>
+  <si>
+    <t>Запись вида [foo^="bar"] выберет все элементы, у которых значение атрибута foo начинается с подстроки bar.</t>
+  </si>
+  <si>
+    <t>Представьте, что у вас есть три класса для задания колонок разной ширины, например: column-1, column-2 и column-3.</t>
+  </si>
+  <si>
+    <t>У этих классов часть свойств повторяется, а разной является только ширина. Чтобы не дублировать CSS-код, вы можете вынести общие свойства колонок в правило с селектором [class^="column-"], а в остальных правилах задать только ширину:</t>
+  </si>
+  <si>
+    <t>[class^="column-"] {  /* общие свойства: отступы, рамки, фон и так далее */  }
+.column-1 { width: 100px; }
+.column-2 { width: 200px; }
+.column-3 { width: 300px; }</t>
+  </si>
+  <si>
+    <t>То есть, первый селектор выберет все дивы с классами, начинающимися на column-:</t>
+  </si>
+  <si>
+    <t>&lt;div class="column-1"&gt;&lt;/div&gt;
+&lt;div class="column-2"&gt;&lt;/div&gt;
+&lt;div class="column-3"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Обратите внимание, что селектор чувствителен к регистру.</t>
+  </si>
+  <si>
+    <t>Ищем в конце строки: [foo$="bar"]</t>
+  </si>
+  <si>
+    <t>Селектор вида [foo$="bar"] выбирает все элементы, значение атрибута foo которых оканчивается строкой bar.</t>
+  </si>
+  <si>
+    <t>Представьте, что у вас на сайте есть раздел с файлами для скачивания в разных форматах и вам нужно для каждого типа файлов добавить свою иконку. Пример разметки:</t>
+  </si>
+  <si>
+    <t>&lt;a href="batman.pdf"&gt;Скачать&lt;/a&gt;
+&lt;a href="superman.doc"&gt;Скачать&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>В этом случае вы можете назначать иконки в CSS по расширениям файлов:</t>
+  </si>
+  <si>
+    <t>a[href$=".pdf"] {  /* иконка для PDF */  }
+a[href$=".doc"] {  /* иконка для DOC */  }</t>
+  </si>
+  <si>
+    <t>И снова, селектор чувствителен к регистру.</t>
+  </si>
+  <si>
+    <t>Поиск подстроки везде: [foo*="bar"]</t>
+  </si>
+  <si>
+    <t>Следующий вариант записи [foo*="bar"]
+Будут выбраны все элементы, у которых значение атрибута foo содержит подстроку bar на любой позиции. Среди трёх элементов:</t>
+  </si>
+  <si>
+    <t>&lt;p class="person-name"&gt;&lt;/p&gt;
+&lt;div class="some-person-info"&gt;&lt;/div&gt;
+&lt;span class="date-person"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>селектор [class*="person"] выберет все.
+Обратите внимание, что селектор чувствителен к регистру.</t>
+  </si>
+  <si>
+    <t>Поиск слов внутри строки: [foo~="bar"]</t>
+  </si>
+  <si>
+    <t>Следующая запись: [foo~="bar"].
+Такой селектор выберет все элементы, у которых значение атрибута foo содержит слово bar.</t>
+  </si>
+  <si>
+    <t>Входить должно именно слово, а не просто подстрока. То есть вхождение bar должно содержать с обеих сторон разделители: пробелы или начало/конец строки.</t>
+  </si>
+  <si>
+    <t>Поиск префиксов: [foo|="bar"]</t>
+  </si>
+  <si>
+    <t>Селектор по атрибутам вида [foo|="bar"]</t>
+  </si>
+  <si>
+    <t>В данном случае будут выбраны все элементы, у которых значение атрибута foo содержит префикс bar, то есть либо полностью совпадает с bar, либо начинается со строки bar- (наличие знака переноса существенно). Другими словами, используя уже знакомые записи селекторов, этот можно заменить на два:</t>
+  </si>
+  <si>
+    <t>1. [foo="bar"] — все элементы, у которых значение атрибута foo полностью совпадает со значением bar.
+2. [foo^="bar-"] — все элементы, у которых значение атрибута foo начинается со значения bar-.</t>
+  </si>
+  <si>
+    <t>Псевдоклассы :enabled и :disabled</t>
+  </si>
+  <si>
+    <t>Для обращения к элементам, которые являются доступными на сайте (не заблокированными), можно использовать псевдокласс :enabled. Заблокированными считаются элементы форм, у которых установлен атрибут disabled.</t>
+  </si>
+  <si>
+    <t>Например:
+input:enabled {  /* какие-то стили */  }</t>
+  </si>
+  <si>
+    <t>И наоборот, если нужно обратиться только к заблокированным элементам, то для этого есть псевдокласс :disabled</t>
+  </si>
+  <si>
+    <t>Псевдоклассы :read-only и :read-write</t>
+  </si>
+  <si>
+    <t>Как мы уже рассматривали в предыдущих частях, есть разные способы запретить редактирование пользователем полей. Одним из таковых является установка атрибута readonly. Значение в данном случае доступно для чтения и копирования, но недоступно для редактирования.</t>
+  </si>
+  <si>
+    <t>В зависимости от этого параметра существует два селектора, которые позволяют выбирать каждую группу полей:
+Селектор :read-only выберет все поля, доступные только для чтения.
+Селектор :read-write выберет все поля без атрибута readonly, даже если у них есть атрибут disabled.</t>
+  </si>
+  <si>
+    <t>Пример записи:
+input:read-only {}</t>
+  </si>
+  <si>
+    <t>В случае, если браузер не поддерживает такие селекторы, их можно заменить на аналогичные:</t>
+  </si>
+  <si>
+    <t>input[readonly] {} /* аналог :read-only */
+input:not([readonly]) {} /* аналог :read-write */</t>
+  </si>
+  <si>
+    <t>Однако, обратите внимание, что input:not([readonly]) помимо доступных для редактирования текстовых полей выберет кнопки и другие нетекстовые поля input, например, input[type="submit"].</t>
+  </si>
+  <si>
+    <t>Псевдокласс :required</t>
+  </si>
+  <si>
+    <t>Мы уже разбирали, что при помощи специального атрибута required можно отметить поля, обязательные для заполнения
+Используя селектор :required можно задать отдельные стили для этих полей</t>
+  </si>
+  <si>
+    <t>Например
+input:required {}</t>
+  </si>
+  <si>
+    <t>Псевдокласс :optional</t>
+  </si>
+  <si>
+    <t>Помимо :required существует селектор :optional, выполняющий обратное действие. То есть выберутся все элементы, у которых НЕ указан атрибут required</t>
+  </si>
+  <si>
+    <t>Пример записи
+select:optional {}</t>
+  </si>
+  <si>
+    <t>Псевдокласс :checked</t>
+  </si>
+  <si>
+    <t>При помощи селектора :checked можно обратиться ко всем элементам input с типами checkbox или radio, которые являются выбранными (отмеченными)</t>
+  </si>
+  <si>
+    <t>Например
+input:checked {}</t>
+  </si>
+  <si>
+    <t>Псевдоклассы :invalid и :valid</t>
+  </si>
+  <si>
+    <t>При помощи разных типов полей (email, url и др.) или специфических настроек (pattern, min/max и др.) можно указать браузеру, какие именно данные мы ожидаем от пользователя в том или ином поле.</t>
+  </si>
+  <si>
+    <t>Селектор :valid выберет все элементы, у которых введенное значение удовлетворяет требованиям.
+А селектор :invalid соответственно выберет элементы, у которых введенное значение некорректно.</t>
+  </si>
+  <si>
+    <t>Пример записи:
+input:invalid { }</t>
+  </si>
+  <si>
+    <t>Псевдоклассы :in-range и :out-of-range</t>
+  </si>
+  <si>
+    <t>В части, посвященной формам, мы разбираем специальный тип поля для ввода числовых значений &lt;input type="number"&gt;. У этого поля можно определить максимальное и минимальное значение при помощи атрибутов max и min соответственно.</t>
+  </si>
+  <si>
+    <t>Селектор :in-range выбирает все элементы, значение которых попадает в указанный диапазон.
+А селектор :out-of-range выбирает все элементы, значение которых НЕ попадает в указанный диапазон.</t>
+  </si>
+  <si>
+    <t>Например:
+input:in-range {}</t>
+  </si>
+  <si>
+    <t>Объединяй и властвуй</t>
+  </si>
+  <si>
+    <t>Все эти новые селекторы, как и любые другие селекторы, можно комбинировать между собой, соединять с селекторами другого типа, псевдоклассами и так далее. Все зависит только от сложности задачи и необходимости использовать то или иное решение</t>
+  </si>
+  <si>
+    <t>Например
+input[type="checkbox"]:required:checked {}</t>
+  </si>
+  <si>
+    <t>В данном примере будут выбраны все чекбоксы, которые являются обязательными для заполнения и включены по умолчанию.</t>
+  </si>
+  <si>
+    <t>Чудеса с ~ и :checked</t>
+  </si>
+  <si>
+    <t>Благодаря селектору :checked, с помощью чистого CSS можно создавать очень много интересных эффектов, так как мы можем не просто выбирать отмеченные поля форм, но и влиять с помощью этих полей на другие элементы.</t>
+  </si>
+  <si>
+    <t>Для этого нам нужно комбинировать :checked и ~, который позволяет выбрать все элементы, идущие за отмеченным полем. Пример:</t>
+  </si>
+  <si>
+    <t>input:checked ~ .item { color: red; }</t>
+  </si>
+  <si>
+    <t>Такое CSS-правило задаст красный цвет, всем элементам с классом item, расположенным после отмеченного поля.</t>
+  </si>
+  <si>
+    <t>Получается, что мы можем с помощью чекбоксов или радиокнопок управлять внешним видом других элементов. С помощью этого приёма, например, делают переключающиеся вкладки, которые работают без JavaScript.</t>
+  </si>
+  <si>
+    <t>Испытание: UI-кит для формы</t>
+  </si>
+  <si>
+    <t>В этом задании вы создадите простой набор стилей для полей форм, или User Interface кит.</t>
+  </si>
+  <si>
+    <t>С появлением новых селекторов, стало намного проще стилизовать такие элементы форм, как радиокнопки и чекбоксы.</t>
+  </si>
+  <si>
+    <t>Сами по себе поля форм стилизуются очень тяжело. Но поля можно спрятать, а их состояние передавать в соседние label, задавая подписям разные фоны или другие стили в зависимости от состояния полей. То есть внешний вид поля рисуется внутри label, иногда с помощью псевдоэлементов.</t>
+  </si>
+  <si>
+    <t>Вот пример набора селекторов для стилизации радиокнопки:</t>
+  </si>
+  <si>
+    <t>input[type=radio] + label {...}
+input[type=radio]:checked + label {...}
+input[type=radio]:disabled + label {...}</t>
   </si>
 </sst>
 </file>
@@ -25855,7 +26103,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -25877,6 +26125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25913,7 +26167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -26080,7 +26334,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30339,10 +30599,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30800,10 +31060,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:A190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31394,6 +31654,371 @@
     <row r="117" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>1580</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="61" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="58" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="58" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="58" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="58" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="58" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="58" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="58" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="58" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="58" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="58" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="58" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="58" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="58" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="58" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="58" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="58" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="58" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="58" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="58" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="58" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="19" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="58" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="58" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="58" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="58" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="58" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="58" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="58" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="58" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="58" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="58" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="58" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="58" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="19" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="58" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="58" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="19" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="58" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="58" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="58" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="58" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="19" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="58" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="58" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="58" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="19" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="58" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="58" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="58" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="19" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="58" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="58" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="58" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="19" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="58" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="58" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="58" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="58" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="58" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="19" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="58" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="58" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="58" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="58" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="58" t="s">
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -31563,8 +32188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32139,28 +32764,28 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
+      <c r="A46" s="60"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="60"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="60"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="60"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+      <c r="A50" s="60"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="60"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
+      <c r="A52" s="60"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
+      <c r="A53" s="60"/>
     </row>
     <row r="54" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">

--- a/class.xlsx
+++ b/class.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,8 @@
     <sheet name="градиент" sheetId="25" r:id="rId23"/>
     <sheet name="декор" sheetId="26" r:id="rId24"/>
     <sheet name="трансформ" sheetId="27" r:id="rId25"/>
+    <sheet name="аним" sheetId="28" r:id="rId26"/>
+    <sheet name="less" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="2023">
   <si>
     <t>main-header</t>
   </si>
@@ -26289,12 +26291,858 @@
   <si>
     <t>Такая разметка main очень гибкая: можно без проблем менять ширину боковых столбцов, при этом основная колонка будет занимать всю оставшуюся ширину.</t>
   </si>
+  <si>
+    <t>Плавные переходы</t>
+  </si>
+  <si>
+    <t>Длительность перехода, transition-duration</t>
+  </si>
+  <si>
+    <t>Плавные переходы в CSS или transitions позволяют изменять значения свойств постепенно, «с нежностью».</t>
+  </si>
+  <si>
+    <t>Обычно эффект от изменения значений CSS-свойств виден мгновенно, но с помощью плавных переходов можно изменить это поведение и сделать процесс изменения значений достаточно длительным.</t>
+  </si>
+  <si>
+    <t>В отличие от анимаций, которые позволяют управлять любым количеством промежуточных состояний, с помощью transitions можно управлять только переходом между двумя состояниями: начальным и конечным.</t>
+  </si>
+  <si>
+    <t>Чтобы обозначить плавный переход в CSS, достаточно задать одно свойство: transition-duration — длительность перехода. Значения задаются в секундах (10s, 3s), долях секунды (0.1s, 0.03s) или миллисекундах (100ms, 333ms).</t>
+  </si>
+  <si>
+    <t>Длительность перехода, шаг 2</t>
+  </si>
+  <si>
+    <t>Плавные переходы и анимацию можно применить только к некоторым CSS-свойствам. В основном это свойства, изменяющие размер, цвет, позицию элементов.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/CSS/CSS_animated_properties</t>
+  </si>
+  <si>
+    <t>- приведён перечень анимируемых свойств и характер их анимирования.</t>
+  </si>
+  <si>
+    <t>Если задана только длительность перехода transition-duration, то по умолчанию плавное изменение затрагивает все свойства элемента и для всех свойств происходит одновременно.</t>
+  </si>
+  <si>
+    <t>transition-property: какие свойства изменять плавно?</t>
+  </si>
+  <si>
+    <t>По умолчанию плавный переход действует на все анимируемые свойства элемента. Такое поведение соответствует значению all свойства transition-property, это значение по умолчанию.</t>
+  </si>
+  <si>
+    <t>Такое поведение часто нежелательно, особенно когда в правиле много свойств.
+Можно указать, какие именно свойства нужно изменять плавно, перечислив их в transition-property через запятую:</t>
+  </si>
+  <si>
+    <t>transition-property: width;     // плавно меняется только ширина
+transition-property: width, height; // плавно меняются ширина и высота</t>
+  </si>
+  <si>
+    <t>При этом так же через запятую можно задавать переходам разных свойств разную длительность:</t>
+  </si>
+  <si>
+    <t>transition-property: width, height;
+transition-duration: 1s, 5s; // ширина меняется за 1 секунду, высота за 5</t>
+  </si>
+  <si>
+    <t>В примере у кнопки анимируются свойства background-color, transform и font-size.</t>
+  </si>
+  <si>
+    <t>Задержка перехода, transition-delay</t>
+  </si>
+  <si>
+    <t>Ещё одно свойство переходов — transition-delay. Оно определяет задержку перед началом перехода и задаётся в секундах или миллисекундах, как и transition-duration.</t>
+  </si>
+  <si>
+    <t>«Форма» перехода, transition-timing-function</t>
+  </si>
+  <si>
+    <t>Ещё одно свойство, влияющее на переход — transition-timing-function. Это свойство аналогично свойству animation-timing-function, которое разбирается в части по анимациям. Свойство transition-timing-function определяет с какой скоростью и ускорением будут меняться свойства во время перехода.</t>
+  </si>
+  <si>
+    <t>В предыдущих примерах переходы происходили с одинаковой динамикой. Мы меняли длительность и задержку перехода, но не «форму». Эта «форма» по умолчанию соответствует первому графику, из которого видно, что переход начинается медленно, затем ускоряется и к концу движения опять замедляется.</t>
+  </si>
+  <si>
+    <t>Так ведёт себя значение ease свойства transition-timing-function.</t>
+  </si>
+  <si>
+    <t>Чтобы сделать переход равномерным, без ускорений и замедлений, используется значение linear. «Форма» линейного перехода приведена на втором графике.</t>
+  </si>
+  <si>
+    <t>transition-timing-function, шаг 2</t>
+  </si>
+  <si>
+    <t>Вот ещё несколько форм переходов: ease-in, ease-out и ease-in-out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ease-in                              ease-out                       ease-in-out</t>
+  </si>
+  <si>
+    <t>Из графиков видно, что при значении ease-in переход медленно начинается, а к концу ускоряется; при ease-out — начинается быстро, а к концу замедляется. Значение ease-in-out похоже на ease, то есть переход начинается и заканчивается медленно, но происходит это чуть-чуть интенсивнее.</t>
+  </si>
+  <si>
+    <t>transition-timing-function, шаг 3</t>
+  </si>
+  <si>
+    <t>Названия linear, ease, ease-in и другие — это «псевдонимы» функций кубических кривых Безье:</t>
+  </si>
+  <si>
+    <t>cubic-bezier(0, 0, 1, 1)  // это linear
+cubic-bezier(0.42, 0, 1, 1) // это ease-in</t>
+  </si>
+  <si>
+    <t>В общем представлении cubic-bezier(x1, y1, x2, y2) значения x и y — это координаты точек кривых на графике. При этом верным считается значение x только в диапазоне от 0 до 1.</t>
+  </si>
+  <si>
+    <t>Существует отличный сервис(https://cubic-bezier.com/#.17,.67,.83,.67), помогающий разобраться в функциональном представлении кривых Безье без необходимости штудировать учебники по математике.</t>
+  </si>
+  <si>
+    <t>А вот по этой ссылке(https://easings.net/ru) можно найти целую коллекцию разных easing-функций на основе кривых Безье.</t>
+  </si>
+  <si>
+    <t>C помощью функции cubic-bezier мы можем задавать любые формы переходов.</t>
+  </si>
+  <si>
+    <t>transition-timing-function, шаг 4</t>
+  </si>
+  <si>
+    <t>Ещё один возможный класс значений transition-timing-function — это steps.
+Они позволяют задать «ступеньки», по которым будет идти переход. Синтаксис steps следующий:</t>
+  </si>
+  <si>
+    <t>transition-timing-function: steps(число_шагов, направление);</t>
+  </si>
+  <si>
+    <t>Тут всё просто: число_шагов — это целое число, за которое будет выполнен переход; направление может принимать значение start или end.</t>
+  </si>
+  <si>
+    <t>При заданном start первый шаг выполняется одновременно с началом перехода, а в случае c end последний шаг будет выполнен вместе с завершением перехода.</t>
+  </si>
+  <si>
+    <t>Кстати, переход можно описать в сокращённом виде свойством transition. Параметры перехода просто перечисляются через пробел: свойство, длительность, форма и задержка:</t>
+  </si>
+  <si>
+    <t>transition: width 1s ease-in 2s;</t>
+  </si>
+  <si>
+    <t>К примеру, переход тут применяется к ширине элемента, будет длиться 1 секунду с формой ease-in и задержкой перед началом в 2 секунды.</t>
+  </si>
+  <si>
+    <t>Анимация</t>
+  </si>
+  <si>
+    <t>Привет, animation!</t>
+  </si>
+  <si>
+    <t>С помощью CSS можно создавать сложные анимации и очень гибко управлять ими. Описание CSS-анимации состоит из двух частей: набора ключевых кадров keyframes и параметров самой анимации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    width: 100px;
+  }
+  100% {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    width: 200px;
+  }
+}</t>
+  </si>
+  <si>
+    <t>Вот пример описания ключевых кадров анимации:
+@keyframes stretching {
+  0% {</t>
+  </si>
+  <si>
+    <t>Анимация в примере имеет название stretching, и в ней описывается, как будет меняться стиль блока от начальной до конечной точки. Эту анимацию можно применить к любому элементу, для этого достаточно добавить в CSS два свойства — animation-name (название анимации) и animation-duration (длительность) — и задать им нужные значения.</t>
+  </si>
+  <si>
+    <t>Например:
+.button {
+  animation-name: stretching;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  animation-duration: 1s;
+}</t>
+  </si>
+  <si>
+    <t>Этот код назначит анимацию stretching элементам с классом button. В результате работы анимации элемент плавно увеличит ширину со 100px до 200px за 1 секунду, а затем вернётся в исходное состояние.</t>
+  </si>
+  <si>
+    <t>@keyframes: раскадровка</t>
+  </si>
+  <si>
+    <t>Для каждой анимации нужно задать имя, описать начальный и конечный ключевые кадры, которые задаются с помощью зарезервированных слов from и to или значений 0% и 100%.</t>
+  </si>
+  <si>
+    <t>Также можно описать промежуточные ключевые кадры, которые задаются с помощью процентов.
+Если не задан начальный ключевой кадр, то анимация будет проигрываться из исходного стилевого состояния элемента к ближайшему шагу из перечисленных в keyframes и далее.</t>
+  </si>
+  <si>
+    <t>Если не задан конечный кадр, то после достижения последнего промежуточного шага, анимация проиграется в обратном направлении до достижения изначального состояния элемента.</t>
+  </si>
+  <si>
+    <t>Ключевые кадры внутри keyframes могут быть написаны в произвольном порядке, но лучше их перечислять по хронологии от меньшего к большему.</t>
+  </si>
+  <si>
+    <t>Длительность анимации animation-duration задаётся в секундах или миллисекундах, например: 10s, 100ms.</t>
+  </si>
+  <si>
+    <t>@keyframes: from и to</t>
+  </si>
+  <si>
+    <t>Начальный и конечный ключевые кадры задаются с помощью слов from и to или значений 0% и 100%.</t>
+  </si>
+  <si>
+    <t>А промежуточные ключевые кадры задаются с помощью процентов. Вот пример анимации из 4 кадров:</t>
+  </si>
+  <si>
+    <t>@keyframes coloring {
+  from { background-color: red; }
+  33%  { background-color: yellow; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  66%  { background-color: green; }
+  to   { background-color: blue; }
+}</t>
+  </si>
+  <si>
+    <t>@keyframes: группировка кадров</t>
+  </si>
+  <si>
+    <t>Ключевые кадры в keyframes можно группировать, для этого нужно перечислить их через запятую. Рассмотрим пример:</t>
+  </si>
+  <si>
+    <t>@keyframes stretching {
+  0%,
+  50% {</t>
+  </si>
+  <si>
+    <t>В этом примере первые два кадра сгруппированы. Анимируемый элемент сначала изменит свою ширину до 100px и останется в этом состоянии половину времени анимации. А за вторую половину времени он растянется от 100px до 200px.</t>
+  </si>
+  <si>
+    <t>Множественная анимация, шаг 1</t>
+  </si>
+  <si>
+    <t>Одному элементу могут быть одновременно назначены несколько анимаций.
+Если в этих анимациях меняются разные свойства элемента, то они будут проигрываться одновременно.</t>
+  </si>
+  <si>
+    <t>Множественная анимация, шаг 2</t>
+  </si>
+  <si>
+    <t>Теперь разберём, как добавить элементу вторую параллельную анимацию.
+Допустим, у нас есть две анимации:</t>
+  </si>
+  <si>
+    <t>@keyframes move {
+  to { left: 100px; }
+}</t>
+  </si>
+  <si>
+    <t>@keyframes stretch {
+  to { width: 100px; }
+}</t>
+  </si>
+  <si>
+    <t>Чтобы назначить элементу вторую анимацию, нужно добавить её название и длительность через запятую в свойствах animation-name и animation-duration. Вот так:</t>
+  </si>
+  <si>
+    <t>.element {
+  animation-name: move, stretch;
+  animation-duration: 5s, 5s;
+}</t>
+  </si>
+  <si>
+    <t>В этом примере две анимации запустятся одновременно, элемент будет параллельно двигаться и удлиняться в течение 5-ти секунд.
+Множественные анимации задаются так же, как и множественные фоны и тени — с помощью перечисления свойств через запятую.</t>
+  </si>
+  <si>
+    <t>Количество проигрываний анимации: animation-iteration-count</t>
+  </si>
+  <si>
+    <t>Во всех предыдущих примерах мы создавали анимации, которые проигрывались один раз, а потом элемент возвращался в исходное состояние. Мы можем определять сколько раз будет повторяться анимация. Для этого используется свойство animation-iteration-count.</t>
+  </si>
+  <si>
+    <t>В качестве значения оно принимает положительные числа и ноль: при нуле анимация не будет выполнена, в остальных случаях она повторится указанное число раз.</t>
+  </si>
+  <si>
+    <t>Также в качестве значения animation-iteration-count может быть использовано служебное слово infinite. Оно означает, что анимация будет выполняться бесконечно и никогда не завершится.</t>
+  </si>
+  <si>
+    <t>Направление анимации: animation-direction, шаг 1</t>
+  </si>
+  <si>
+    <t>Помимо количества проигрываний анимации, мы можем определить её направление с помощью свойства animation-direction. По умолчанию анимация имеет прямое направление normal.</t>
+  </si>
+  <si>
+    <t>Но можно назначить и обратный порядок анимации, чтобы проигрывание начиналось с конца и шло к началу (то есть за начальную точку считался кадр to, а за конечную — from). Для этого используется значение reverse свойства animation-direction.</t>
+  </si>
+  <si>
+    <t>Направление анимации: animation-direction, шаг 2</t>
+  </si>
+  <si>
+    <t>У свойства animation-direction есть ещё два значения. Они используются, когда количество проигрываний анимации animation-iteration-count больше одного. И оба они определяют чередующееся направление анимации.</t>
+  </si>
+  <si>
+    <t>Если задано значение alternate, то нечётные проигрывания будут выполняться в прямом направлении, а чётные — в обратном.</t>
+  </si>
+  <si>
+    <t>.element {
+  animation-name: move;
+  animation-duration: 1s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  animation-iteration-count: 2;
+  animation-direction: alternate;
+}</t>
+  </si>
+  <si>
+    <t>В примере анимация move выполнится два раза: в первый (нечётный) раз направление будет прямым, а во второй (чётный) — обратным.</t>
+  </si>
+  <si>
+    <t>Если задано значение alternate-reverse, то нечётные проигрывания наоборот будут выполняться в обратном направлении, а чётные — в прямом.</t>
+  </si>
+  <si>
+    <t>Кроме длительности анимации, мы можем управлять задержкой перед началом её выполнения.</t>
+  </si>
+  <si>
+    <t>Синтаксис свойства animation-delay, с помощью которого и назначается задержка начала, идентичен синтаксису свойства animation-duration.</t>
+  </si>
+  <si>
+    <t>Задержка начала анимации: animation-delay</t>
+  </si>
+  <si>
+    <t>Например, при задании значения animation-delay: 10s анимация начнётся не сразу, а только через десять секунд.</t>
+  </si>
+  <si>
+    <t>Состояние до и после анимации: animation-fill-mode, шаг 1</t>
+  </si>
+  <si>
+    <t>В предыдущих примерах элементы после проигрывания анимации возвращались в исходное состояние. Но есть свойство, которое определяет, будет ли видимым эффект от анимации, когда сама анимация уже закончилась — это animation-fill-mode. При задании свойству значения forwards элемент будет сохранять состояние после завершения анимации.</t>
+  </si>
+  <si>
+    <t>Сохранение свойств анимации по её завершению animation-fill-mode: forwards работает и в случае нескольких повторов анимации или чередующегося направления.</t>
+  </si>
+  <si>
+    <t>Другое значение свойства animation-fill-mode — backwards. Это значение определяет состояние элемента до начала анимации.</t>
+  </si>
+  <si>
+    <t>Если элементу назначена анимация с задержкой начала проигрывания и animation-fill-mode: backwards, то стили, описанные в первом ключевом кадре from или 0%, будут применены сразу, ещё до начала проигрывания анимации.</t>
+  </si>
+  <si>
+    <t>Задание начального состояния анимации до начала её выполнения animation-fill-mode: backwards работает и в случае нескольких повторов или чередующихся направлений анимации.</t>
+  </si>
+  <si>
+    <t>Третье значение свойства animation-fill-mode — both.</t>
+  </si>
+  <si>
+    <t>Оно объединяет действия forwards и backwards. То есть до начала анимации элементу присваивается состояние первого ключевого кадра, а после завершения — конечное состояние анимации сохраняется.</t>
+  </si>
+  <si>
+    <t>Действие animation-fill-mode: both распространяется и на многоразовую, и на чередующуюся анимацию.</t>
+  </si>
+  <si>
+    <t>Остановка и запуск анимации: animation-play-state</t>
+  </si>
+  <si>
+    <t>Ещё одно управляющее свойство CSS-анимаций — animation-play-state. С его помощью можно поставить анимацию «на паузу», а потом возобновить с места остановки.</t>
+  </si>
+  <si>
+    <t>Свойство принимает два значения running и paused. Как видно из названий, paused приостанавливает анимацию, а running начинает или возобновляет анимацию, поставленную на паузу. Значение running задано по умолчанию.</t>
+  </si>
+  <si>
+    <t>«Форма» анимации, animation-timing-function</t>
+  </si>
+  <si>
+    <t>И, наконец, самое интересное свойство — animation-timing-function. Оно определяет, как именно будет происходить анимация: с какой скоростью и ускорением будут меняться свойства, задействованные в ней.</t>
+  </si>
+  <si>
+    <t>В предыдущих примерах анимация проигрывалась с одинаковой динамикой, мы меняли лишь её длительность, но не «форму». Эта «форма» по умолчанию соответствует первому графику, из которого видно, что анимация начинается медленно, затем ускоряется и к концу движения опять замедляется.</t>
+  </si>
+  <si>
+    <t>Так ведёт себя значение ease свойства animation-timing-function.</t>
+  </si>
+  <si>
+    <t>Но мы можем сделать проигрывание анимации равномерным, без ускорений и замедлений. Для этого нужно использовать значение linear. Как видно на втором графике, анимация будет проигрываться с неизменной скоростью.</t>
+  </si>
+  <si>
+    <t>animation-timing-function, шаг 2</t>
+  </si>
+  <si>
+    <t>Вот ещё несколько форм анимации: ease-in, ease-out и ease-in-out.</t>
+  </si>
+  <si>
+    <t>Из графиков видно, что при значении ease-in анимация медленно начинается, а к концу ускоряется; при ease-out — начинается быстро, а к концу замедляется. Значение ease-in-out похоже на ease, то есть анимация начинается и заканчивается медленно, но происходит это чуть-чуть интенсивнее.</t>
+  </si>
+  <si>
+    <t>animation-timing-function, шаг 3</t>
+  </si>
+  <si>
+    <t>Что же скрывается за названиями linear, ease и других функций? Довольно сложная математика кубических кривых Безье.</t>
+  </si>
+  <si>
+    <t>По сути, именованные функции ease-in, ease-out и другие являются псевдонимами для универсального описания кривых, например:</t>
+  </si>
+  <si>
+    <t>cubic-bezier(0, 0, 1, 1)    // это linear
+cubic-bezier(0.42, 0, 1, 1) // это ease-in</t>
+  </si>
+  <si>
+    <t>animation-timing-function, шаг 4</t>
+  </si>
+  <si>
+    <t>Давайте разберёмся с ещё одним возможным классом значений animation-timing-function — это steps.</t>
+  </si>
+  <si>
+    <t>Они позволяют задать «ступеньки», по которым будет идти анимация. Синтаксис steps следующий:
+animation-timing-function: steps(число_шагов, направление);</t>
+  </si>
+  <si>
+    <t>Тут всё просто: число шагов — это целое число, за которое будет выполнена вся анимация; направление может принимать значение start или end.</t>
+  </si>
+  <si>
+    <t>При заданном start первый шаг выполняется одновременно с началом анимации, а в случае c end последний шаг будет выполнен вместе с завершением анимации. То есть при start пошаговая анимация идёт как бы с опережением, а при end — вдогонку.</t>
+  </si>
+  <si>
+    <t>Знакомство с Less</t>
+  </si>
+  <si>
+    <t>Введение</t>
+  </si>
+  <si>
+    <t>CSS-препроцессоры — это «программистский» подход к CSS. Они позволяют при написании стилей использовать свойственные языкам программирования приёмы и конструкции: переменные, вложенность, наследуемость, циклы, функции и математические операции.</t>
+  </si>
+  <si>
+    <t>Синтаксис препроцессоров похож на обычный CSS. Код, написанный на языке препроцессора, не используется прямо в браузере, а преобразуется в чистый CSS-код с помощью специальных библиотек.</t>
+  </si>
+  <si>
+    <t>Три самых известных препроцессора — это Less, SASS и Stylus. Они во многом похожи между собой, но имеют и ключевые различия.</t>
+  </si>
+  <si>
+    <t>В тренажёре по Less мы будем шаг за шагом строить небольшой (велосипед) фреймворк компонентов. Когда он будет готов, мы сможем собирать из компонентов цельные интерфейсы. Компонентный подход позволяет структурировать большие объёмы кода и легко масштабировать проекты. Препроцессор в этом деле — хорошее подспорье.</t>
+  </si>
+  <si>
+    <t>Переменные, шаг 1</t>
+  </si>
+  <si>
+    <t>Цветовая схема — основа любого дизайна в вебе. Применяя цветовое кодирование, можно сделать интерфейс более понятным. Поэтому первым делом при создании нашего мини-фреймворка давайте займёмся цветовой схемой основных элементов интерфейса. В этой задаче Less нам очень поможет.</t>
+  </si>
+  <si>
+    <t>В прошлом задании в коде встречалась подобная запись:
+@navy: #1d365d;</t>
+  </si>
+  <si>
+    <t>Так в Less описываются переменные. Синтаксис переменных такой:
+@название_переменной: значение_переменной;</t>
+  </si>
+  <si>
+    <t>Создав переменную один раз, можно использовать её в любом месте кода. Например:</t>
+  </si>
+  <si>
+    <t>background-color: @navy;
+color: @navy;
+border-color: @navy;</t>
+  </si>
+  <si>
+    <t>Во всех местах, где указана переменная, Less заменит строку @navy на #1d365d. Теперь, если понадобится изменить цвет, не нужно искать все его объявления в файле, а достаточно просто изменить значение переменной в одном месте.</t>
+  </si>
+  <si>
+    <t>Переменные, шаг 2</t>
+  </si>
+  <si>
+    <t>Переменные можно объявлять как «снаружи» правил, так и «внутри». В случае «внутреннего» объявления переменная будет доступна только внутри правила, в котором она объявлена:</t>
+  </si>
+  <si>
+    <t>.rule-1 {
+  @align: right;
+  text-align: @align; // text-align задаётся значение right
+}</t>
+  </si>
+  <si>
+    <t>.rule-2 {
+  text-align: @align; // в этом месте произойдёт ошибка
+}</t>
+  </si>
+  <si>
+    <t>Если переменная объявлена и «внутри» правила, и «снаружи» — Less применит «внутреннее» значение.</t>
+  </si>
+  <si>
+    <t>@align: left;
+.rule-1 {
+  @align: right;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  text-align: @align; // text-align задаётся значение right
+}</t>
+  </si>
+  <si>
+    <t>.rule-2 {
+  text-align: @align; // text-align задаётся значение left
+}</t>
+  </si>
+  <si>
+    <t>Таким образом можно «переопределять» глобальные переменные в локальном контексте.</t>
+  </si>
+  <si>
+    <t>Цветовые функции, шаг 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    Все цвета модели RGB можно расположить на цветовом колесе, где они плавно переходят друг в друга.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    Итак, мы задали базовый цвет для нашей схемы, от него мы будем отталкиваться при выборе других цветов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    Давайте узнаем, как это сделать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    С помощью Less-функции spin можно повернуть цветовое колесо на определённый угол относительно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    заданного цвета и получить новый цвет. Функция принимает два параметра, синтаксис её такой:</t>
+  </si>
+  <si>
+    <t>spin(цвет, угол_поворота)</t>
+  </si>
+  <si>
+    <t>Цвет можно задавать в любом цветовом формате. Значение угла может быть как положительным, так и отрицательным. При положительном угле функция повернёт колесо по часовой стрелке, при отрицательном — против. Примеры:</t>
+  </si>
+  <si>
+    <t>color: spin(red, 90); // цвет повернётся от красного на 90° по часовой
+border-color: spin(#f0f, -45); // цвет на 45° от #f0f против часовой</t>
+  </si>
+  <si>
+    <t>Противоположный цвет на колесе называется комплементарным. Он находится под углом 180° к заданному цвету. Комплементарные цвета используют для создания контраста.</t>
+  </si>
+  <si>
+    <t>Вложенные правила, шаг 1</t>
+  </si>
+  <si>
+    <t>Отвлечёмся ненадолго от цвета и рассмотрим ещё одну замечательную особенность Less — вложенные правила. Они позволяют избавиться от дублирования одинаковых названий в коде и делают его более структурированным. Например, вот такой код:</t>
+  </si>
+  <si>
+    <t>.super-class-name {
+  color: #ffffff;
+}</t>
+  </si>
+  <si>
+    <t>.super-class-name a {
+  text-decoration: none;
+}</t>
+  </si>
+  <si>
+    <t>.super-class-name a span {
+  font-size: 1em;
+}</t>
+  </si>
+  <si>
+    <t>можно более кратко и без повторов написать, используя вложенность:</t>
+  </si>
+  <si>
+    <t>.super-class-name {
+  color: #ffffff;
+  a {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    text-decoration: none;
+    span {
+      font-size: 1em;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>То есть вложенные правила просто пишутся внутри других правил. Из цепочек вложенных правил Less сам составляет итоговые селекторы.</t>
+  </si>
+  <si>
+    <t>Вложенные правила, шаг 2</t>
+  </si>
+  <si>
+    <t>С помощью вложенных правил можно не только обращаться к дочерним элементам, но и составлять по частям комплексные названия классов. Например, следующий код:</t>
+  </si>
+  <si>
+    <t>.super-button-red {
+  color: red;
+}</t>
+  </si>
+  <si>
+    <t>.super-button-blue {
+  color: blue;
+}</t>
+  </si>
+  <si>
+    <t>можно записать проще c помощью вложенных правил:</t>
+  </si>
+  <si>
+    <t>.super-button {
+  &amp;-red { color: red; }
+  &amp;-blue { color: blue; }
+}</t>
+  </si>
+  <si>
+    <t>То есть, если перед вложенным правилом поставить амперсанд &amp;, то оно станет родственным родительскому, и Less подставит родительский селектор вместо амперсанда.</t>
+  </si>
+  <si>
+    <t>Математические операции, шаг 1</t>
+  </si>
+  <si>
+    <t>Над любыми численными значениями в Less-коде можно произвести математические операции сложения, вычитания, умножения или деления:</t>
+  </si>
+  <si>
+    <t>padding-top: 10px + 20; // = 30px
+padding-bottom: 100px - 50; // = 50px
+font-size: 2em * 2; // = 4em
+left: 50% / 2; // 25%</t>
+  </si>
+  <si>
+    <t>Less выполнит математическую операцию и вернёт в CSS уже вычисленное значение. Единицы измерения всегда берутся от первого параметра в выражении.</t>
+  </si>
+  <si>
+    <t>Чтобы вычислить отрицательное значение @distance просто умножим переменную на -1.</t>
+  </si>
+  <si>
+    <t>В выражениях Less с обеих сторон операторов + и - необходимы пробелы. Так мы не допустим синтаксической двусмысленности. Без пробелов символ - одновременно может быть интерпретирован и как оператор вычитания, и как часть ключевого слова (например, в inline-block). Операторы * и / можно использовать без пробелов вокруг них, однако обычно их тоже выделяют пробелами для единообразия в коде.</t>
+  </si>
+  <si>
+    <t>Корнями это требование уходит в CSS и его синтаксис, который полностью поддерживается в Less. Подробнее о синтаксисе выражений в CSS читайте в спецификации(https://drafts.csswg.org/css-values/#calc-syntax).</t>
+  </si>
+  <si>
+    <t>@distance: 60;
+@invert-distance: @distance * -1;</t>
+  </si>
+  <si>
+    <t>В случае суммы числа и RGB-записи цвета слагаемое будет прибавляться к каждому цветовому каналу одновременно:</t>
+  </si>
+  <si>
+    <t>rgb(10, 10, 10) + 10  // то же самое, что
+rgb(20, 20, 20)</t>
+  </si>
+  <si>
+    <t>Цветовые функции, шаг 2</t>
+  </si>
+  <si>
+    <t>С помощью цветов из разработанной палитры зададим состояния кнопок. И по ходу дела разберём другие функции Less для работы с цветом.</t>
+  </si>
+  <si>
+    <t>Сначала зададим базовый цвет для фона кнопок и добавим его вариации по наведению и нажатию на кнопку. По наведению будем делать кнопку чуть светлее, а в момент нажатия — темнее. Для этого воспользуемся Less-функциями lighten и darken. Их синтаксис одинаковый:</t>
+  </si>
+  <si>
+    <t>color: lighten(red, 50%); // светлее red на 50%
+color: darken(blue, 25%); // темнее blue на 25%</t>
+  </si>
+  <si>
+    <t>Второе значение задаётся в процентах от 0% до 100%. При задании 100% в lighten функция возвращает полностью белый цвет, а 100% для darken — полностью чёрный. То есть эти функции «смешивают» заданный цвет с белым или чёрным.</t>
+  </si>
+  <si>
+    <t>Итак, давайте зададим кнопкам нужные цвета и снова воспользуемся вложенными правилами. Чтобы задать смену цвета и для демонстрационного класса btn-hover, и для псевдокласса btn:hover, нужно прописать вложенные правила в Less так:</t>
+  </si>
+  <si>
+    <t>.btn {
+  &amp;-hover,
+  &amp;:hover {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    color: red;
+  }
+}</t>
+  </si>
+  <si>
+    <t>Этот Less преобразуется в следующий CSS:</t>
+  </si>
+  <si>
+    <t>.btn-hover,
+.btn:hover {
+  color: red;
+}</t>
+  </si>
+  <si>
+    <t>Цветовые функции, шаг 3</t>
+  </si>
+  <si>
+    <t>Ещё две Less-функции для работы с цветом: saturate и desaturate. Они увеличивают и уменьшают насыщенность заданного цвета. Их синтаксис такой же как и у lighten/darken:</t>
+  </si>
+  <si>
+    <t>color: saturate(green, 20%); // green насыщеннее на 20%
+color: desaturate(blue, 50%); // blue бледнее на 50%</t>
+  </si>
+  <si>
+    <t>Функцию desaturate мы используем для создания стиля «отключённой» кнопки. Совместно с desaturate воспользуемся lighten, чтобы сделать кнопку бледной и светлой. Одновременно функции цвета можно использовать так:</t>
+  </si>
+  <si>
+    <t>color: saturate(lighten(red, 50%), 20%); // цвет светлее красного на 50% и насыщеннее на 20%
+color: desaturate(darken(blue, 20%), 50%); // цвет темнее синего на 20% и бледнее на 50%</t>
+  </si>
+  <si>
+    <t>То есть функции можно «вкладывать» друг в друга, используя их в качестве аргументов.</t>
+  </si>
+  <si>
+    <t>Примеси в Less</t>
+  </si>
+  <si>
+    <t>Примеси</t>
+  </si>
+  <si>
+    <t>Мы можем «примешивать» содержимое одного CSS-правила в другое. Для этого нужно написать имя «примешиваемого» правила внутри другого правила. Рассмотрим пример:</t>
+  </si>
+  <si>
+    <t>.white { color: white; } /* объявление примеси */
+.text { .white; }    /* применение примеси */</t>
+  </si>
+  <si>
+    <t>Этот Less-код скомпилируется в такой CSS:</t>
+  </si>
+  <si>
+    <t>.white { color: white; }
+.text { color: white; }</t>
+  </si>
+  <si>
+    <t>Как мы видим, в правиле, где была «вызвана» примесь .white, появилось её содержимое.
+Чтобы не выводить саму примесь в CSS, нужно после объявления примеси поставить скобки:</t>
+  </si>
+  <si>
+    <t>.white() { color: white; } /* объявление невыводимой примеси */
+.text { .white; }      /* применение примеси */</t>
+  </si>
+  <si>
+    <t>(css).text { color: white; }</t>
+  </si>
+  <si>
+    <t>При применении примеси скобки писать необязательно.</t>
+  </si>
+  <si>
+    <t>(less)/* Эти выражения дают один и тот же результат: */
+.mixin();
+.mixin;</t>
+  </si>
+  <si>
+    <t>Несколько примесей</t>
+  </si>
+  <si>
+    <t>К одному правилу можно применить несколько примесей одновременно. В таком случае примеси просто «вызываются» по очереди.
+Например:</t>
+  </si>
+  <si>
+    <t>.white() {
+  color: white;
+}</t>
+  </si>
+  <si>
+    <t>.block {
+  .big();
+  .white();
+}</t>
+  </si>
+  <si>
+    <t>(less).big() {
+  width: 100500px;
+}</t>
+  </si>
+  <si>
+    <t>(css).block {
+  width: 100500px;
+  color: white;
+}</t>
+  </si>
+  <si>
+    <t>Примесь с параметром</t>
+  </si>
+  <si>
+    <t>В примесь можно передавать параметры. Они указываются внутри скобок объявления примесей. Названия параметров начинаются с символа @. Рассмотрим пример:</t>
+  </si>
+  <si>
+    <t>(less).margin(@value) {
+  margin-top: @value;
+  margin-bottom: @value;
+}</t>
+  </si>
+  <si>
+    <t>.block {
+  .margin(10px);
+}</t>
+  </si>
+  <si>
+    <t>(css).block {
+  margin-top: 10px;
+  margin-bottom: 10px;
+}</t>
+  </si>
+  <si>
+    <t>Параметры позволяют сделать примеси более универсальными.</t>
+  </si>
+  <si>
+    <t>Параметризованные примеси удобны, когда над разными элементами нужно провести однотипные действия с отличающимися результатами.</t>
+  </si>
+  <si>
+    <t>Значение параметра примеси по умолчанию</t>
+  </si>
+  <si>
+    <t>Параметризованные примеси можно сделать ещё универсальнее.</t>
+  </si>
+  <si>
+    <t>Параметру примеси можно задать значение по умолчанию. Оно указывается через двоеточие после названия параметра. Если в примесь при применении параметр не передаётся, то используется значение по умолчанию.</t>
+  </si>
+  <si>
+    <t>(less).big(@size: 100500px) {
+  width: @size;
+}</t>
+  </si>
+  <si>
+    <t>.block {
+  .big(10px);
+}</t>
+  </si>
+  <si>
+    <t>(css).block {
+  width: 10px;
+}</t>
+  </si>
+  <si>
+    <t>Рассмотрим пример, в котором значение параметра по умолчанию указано, но не задействуется, так как в примесь передаётся явный параметр:</t>
+  </si>
+  <si>
+    <t>В следующем примере примесь применяется без параметров, поэтому используется значение по умолчанию:</t>
+  </si>
+  <si>
+    <t>.block {
+  .big();
+}</t>
+  </si>
+  <si>
+    <t>(css).block {
+  width: 100500px;
+}</t>
+  </si>
+  <si>
+    <t>Примесь с несколькими параметрами</t>
+  </si>
+  <si>
+    <t>В примесь можно передавать несколько параметров. Параметры перечисляются через запятую , или через точку с запятой ;. Рекомендуется использовать точку с запятой. Пример:</t>
+  </si>
+  <si>
+    <t>(less).offset(@padding; @margin) {
+  padding: @padding;
+  margin: @margin;
+}</t>
+  </si>
+  <si>
+    <t>.block {
+  .offset(5px; 10px);
+}</t>
+  </si>
+  <si>
+    <t>(css).block {
+  padding: 5px;
+  margin: 10px;
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26416,6 +27264,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -26478,10 +27335,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -26655,11 +27513,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -26757,6 +27631,55 @@
         <a:xfrm>
           <a:off x="0" y="28728866"/>
           <a:ext cx="5744377" cy="2391109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>915865</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8975481"/>
+          <a:ext cx="915865" cy="915865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27726,6 +28649,363 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2967404</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>172413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7253654"/>
+          <a:ext cx="2967404" cy="1491259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>20</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1114731</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>174789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20" y="9737508"/>
+          <a:ext cx="1114711" cy="1486281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1282200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2396911</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>174763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282200" y="9737482"/>
+          <a:ext cx="1114711" cy="1486281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2557084</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3649411</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>174763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2557084" y="9737482"/>
+          <a:ext cx="1092327" cy="1486281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2967404</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>179740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41931981"/>
+          <a:ext cx="2967404" cy="1491259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>22007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1114711</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>174788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44218007"/>
+          <a:ext cx="1114711" cy="1486281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1282180</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2396891</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>174762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282180" y="44217981"/>
+          <a:ext cx="1114711" cy="1486281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2557064</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3649391</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>174762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2557064" y="44217981"/>
+          <a:ext cx="1092327" cy="1486281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -30964,10 +32244,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30981,7 +32261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
@@ -33582,28 +34862,28 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="66"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="66"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="66"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="66"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="A50" s="66"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="66"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="66"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="66"/>
     </row>
     <row r="54" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
@@ -33734,7 +35014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -33889,7 +35169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
@@ -34424,6 +35704,1284 @@
     <row r="115" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="54" t="s">
         <v>1443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A166"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="124.5703125" style="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="60" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="60" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="60" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="60" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="60" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="60" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="60" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="60" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="60" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="60" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="60" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="60" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="60" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="59" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="60" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="60" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="60" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="60" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="60" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="60" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="60" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="60" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="62" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="60" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="60" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="60" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="60" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="60" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="62" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="60" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="60" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="60" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="62" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="60" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="29" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="60" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="60" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="60" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="60" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="60" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="29" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="29" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="60" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="60" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="60" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="60" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="60" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="60" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="60" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="60" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="60" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="60" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="60" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="60" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="60" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="60" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="60" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="60" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="60" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="60" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="60" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="60" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="60" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="60" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="60" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="60" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="60" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="60" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="60" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="60" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="60" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="60" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="60" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="60" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="63" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="60" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="60" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="60" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="60" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="60" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="63" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="63" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="63" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="60" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="60" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="60" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="60" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="127" style="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="64" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="64" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="64" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="64" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="64" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="64" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="64" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="64" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="64" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="64" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="64" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="64" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="64" t="s">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -36978,7 +39536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>

--- a/class.xlsx
+++ b/class.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="19" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="21" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
     <sheet name="трансформ" sheetId="27" r:id="rId25"/>
     <sheet name="аним" sheetId="28" r:id="rId26"/>
     <sheet name="less" sheetId="29" r:id="rId27"/>
+    <sheet name="svg" sheetId="30" r:id="rId28"/>
+    <sheet name="ретро" sheetId="31" r:id="rId29"/>
+    <sheet name="css-фильтр" sheetId="32" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="2023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="2376">
   <si>
     <t>main-header</t>
   </si>
@@ -26987,23 +26990,11 @@
     <t>Мы можем «примешивать» содержимое одного CSS-правила в другое. Для этого нужно написать имя «примешиваемого» правила внутри другого правила. Рассмотрим пример:</t>
   </si>
   <si>
-    <t>.white { color: white; } /* объявление примеси */
-.text { .white; }    /* применение примеси */</t>
-  </si>
-  <si>
     <t>Этот Less-код скомпилируется в такой CSS:</t>
-  </si>
-  <si>
-    <t>.white { color: white; }
-.text { color: white; }</t>
   </si>
   <si>
     <t>Как мы видим, в правиле, где была «вызвана» примесь .white, появилось её содержимое.
 Чтобы не выводить саму примесь в CSS, нужно после объявления примеси поставить скобки:</t>
-  </si>
-  <si>
-    <t>.white() { color: white; } /* объявление невыводимой примеси */
-.text { .white; }      /* применение примеси */</t>
   </si>
   <si>
     <t>(css).text { color: white; }</t>
@@ -27136,13 +27127,1358 @@
   padding: 5px;
   margin: 10px;
 }</t>
+  </si>
+  <si>
+    <t>Иногда бывает полезным изменить поведение примеси в зависимости от передаваемых параметров. Например, у нас есть примесь, задающая размер шрифта:</t>
+  </si>
+  <si>
+    <t>(less).set-font-size(@size) {
+  font-size: @size;
+}</t>
+  </si>
+  <si>
+    <t>Мы можем создать ещё одну примесь с таким же названием, но передать дополнительно первым параметром название шаблона этой примеси. Имя шаблона указывается первым перед параметрами самой примеси. Добавим примеси дополнительный первый параметр smaller и немного изменим принцип её работы:</t>
+  </si>
+  <si>
+    <t>(less).set-font-size(smaller; @size) {
+  font-size: @size / 2;
+}</t>
+  </si>
+  <si>
+    <t>Теперь можно вызывать эту примесь с названием шаблона и без него и, в зависимости от этого, получать соответствующие результаты:</t>
+  </si>
+  <si>
+    <t>(less).text {
+  .set-font-size(100px);
+}</t>
+  </si>
+  <si>
+    <t>.small-text {
+  .set-font-size(smaller; 100px);
+}</t>
+  </si>
+  <si>
+    <t>(css).text {
+  font-size: 100px;
+}</t>
+  </si>
+  <si>
+    <t>.small-text {
+  font-size: 50px;
+}</t>
+  </si>
+  <si>
+    <t>Таким образом можно для схожих действий не создавать несколько примесей с разными названиями. Лучше делать шаблоны одной примеси и просто вызывать её с дополнительным параметром.</t>
+  </si>
+  <si>
+    <t>Шаблоны примесей, часть 1-2</t>
+  </si>
+  <si>
+    <t>Шаблоны примесей, часть 3</t>
+  </si>
+  <si>
+    <t>Если нужно задать общие свойства для нескольких шаблонов одной и той же примеси, можно создать универсальный шаблон:</t>
+  </si>
+  <si>
+    <t>(less).font-size(bigger; @size)  {
+  font-size: @size * 2;
+}</t>
+  </si>
+  <si>
+    <t>.font-size(smaller; @size) {
+  font-size: @size / 2;
+}</t>
+  </si>
+  <si>
+    <t>.font-size(@_; @size) {
+  color: #000000;
+} // универсальный шаблон</t>
+  </si>
+  <si>
+    <t>.content-bigger {
+  .font-size(bigger; 20px);
+}</t>
+  </si>
+  <si>
+    <t>.content-smaller {
+  .font-size(smaller; 20px);
+}</t>
+  </si>
+  <si>
+    <t>Универсальный шаблон применяется вместе с остальными шаблонами:</t>
+  </si>
+  <si>
+    <t>(css).content-bigger {
+  font-size: 40px;
+  color: #000000;
+}</t>
+  </si>
+  <si>
+    <t>.content-smaller {
+  font-size: 10px;
+  color: #000000;
+}</t>
+  </si>
+  <si>
+    <t>В качестве имени в универсальный шаблон передаётся специальная переменная @_, за ней следуют параметры. Важно, чтобы универсальный шаблон принимал те же параметры, что и все остальные шаблоны.</t>
+  </si>
+  <si>
+    <t>Примесь с условием</t>
+  </si>
+  <si>
+    <t>В примесях можно использовать полноценные условия, которые могут изменять поведение примеси в зависимости от значений входных параметров.</t>
+  </si>
+  <si>
+    <t>Чтобы создать условие, нужно после названия примеси поставить ключевое слово when, за которым в скобках написать условную конструкцию. Пример:</t>
+  </si>
+  <si>
+    <t>(less).mixin(@variable) when (@variable = 1) {
+  // сделать что-то
+}</t>
+  </si>
+  <si>
+    <t>Такая примесь применится, если «вызвать» её с параметром 1. В противном случае примесь не применится.</t>
+  </si>
+  <si>
+    <t>(less).some-class {
+  .mixin(1);
+}</t>
+  </si>
+  <si>
+    <t>В условной конструкции допускаются следующие операторы: &gt;, &gt;=, =, =&lt;, &lt;. Также допустимо использовать встроенные функции Less, которые возвращают конкретные значения.</t>
+  </si>
+  <si>
+    <t>К примеру, в Less есть встроенная функция lightness, которая принимает в качестве параметра значение цвета и возвращает степень его светлоты. Чёрный цвет обладает 0% светлоты, а белый — 100%. Вот пример её использования:</t>
+  </si>
+  <si>
+    <t>(less).mixin(@color) when (lightness(@color) &gt; 50%) {
+  // сделать что-то, когда цвет светлее серого
+}</t>
+  </si>
+  <si>
+    <t>.mixin(@color) when (lightness(@color) = 100%) {
+  // сделать что-то, когда цвет полностью белый
+}</t>
+  </si>
+  <si>
+    <t>Можно создать примесь, которая в зависимости от цвета текста, будет задавать контрастный фоновый цвет блока.</t>
+  </si>
+  <si>
+    <t>Можно создать несколько примесей с одинаковыми названиями, но разными условиями. Тогда применяться будут только те примеси, условия которых выполняются.</t>
+  </si>
+  <si>
+    <t>Условия и внешние переменные</t>
+  </si>
+  <si>
+    <t>Условия в примесях могут работать не только с параметрами, с которыми «вызвана» примесь, но и с переменными, объявленными вне примесей. Например, если создать примесь с условием, но без параметров:</t>
+  </si>
+  <si>
+    <t>(less).text-color() when (@theme = light) {
+  color: white;
+}</t>
+  </si>
+  <si>
+    <t>А потом создать внешнюю переменную и вызвать где-то примесь:</t>
+  </si>
+  <si>
+    <t>(less)@theme: light;
+.content {
+  .text-color();
+}</t>
+  </si>
+  <si>
+    <t>То условие выполнится, созданная примесь отработает:</t>
+  </si>
+  <si>
+    <t>(css).content {
+  color: white;
+}</t>
+  </si>
+  <si>
+    <t>То есть можно управлять условиями примесей с помощью внешних переменных.</t>
+  </si>
+  <si>
+    <t>Условия и типы параметров</t>
+  </si>
+  <si>
+    <t>В Less есть встроенные функции для проверки типа значения. Их можно применять в условиях примесей для проверки типа переданного параметра. Пример:</t>
+  </si>
+  <si>
+    <t>(less).mixin(@param) when (iscolor(@param)) { … }  // проверка: значение — цвет
+.mixin(@param) when (isnumber(@param)) { … }  // проверка: значение — число
+.mixin(@param) when (isstring(@param)) { … }  // проверка: значение — строка</t>
+  </si>
+  <si>
+    <t>.mixin(@param) when (iskeyword(@param)) { … }  // проверка: значение — ключевое слово
+.mixin(@param) when (isurl(@param)) { … }  // проверка: значение — url</t>
+  </si>
+  <si>
+    <t>Все эти функции возвращают true, если переданный в них параметр соответствует проверяемому типу.</t>
+  </si>
+  <si>
+    <t>Таким образом можно создать универсальную примесь, которая в зависимости от типа переданных параметров будет работать по-разному.</t>
+  </si>
+  <si>
+    <t>Переменные-вставки</t>
+  </si>
+  <si>
+    <t>Переменные можно использовать не только в значениях CSS-свойств, но и как составные части селекторов, названий свойств или как «кусочки» значений свойств. С помощью такой подстановки переменных, или Variable Interpolation, можно динамически формировать разные части CSS-правил.</t>
+  </si>
+  <si>
+    <t>Чтобы сделать подстановку значения переменной, нужно использовать фигурные скобки вокруг её имени:</t>
+  </si>
+  <si>
+    <t>(less)@state: success;
+@property: color;
+@icon: "question";
+@pixels: 2;</t>
+  </si>
+  <si>
+    <t>.btn-@{state} {
+  background-color: green;
+}</t>
+  </si>
+  <si>
+    <t>.btn-error {
+  background-@{property}: red;
+}</t>
+  </si>
+  <si>
+    <t>.btn-help {
+  background-image: url("/img/icons/@{icon}.png");
+}</t>
+  </si>
+  <si>
+    <t>.btn-info {
+  border: ~"@{pixels}px" solid blue;
+}</t>
+  </si>
+  <si>
+    <t>Из примеров выше скомпилируется такой CSS:</t>
+  </si>
+  <si>
+    <t>(less).white { color: white; } /* объявление примеси */
+.text { .white; }    /* применение примеси */</t>
+  </si>
+  <si>
+    <t>(css).white { color: white; }
+.text { color: white; }</t>
+  </si>
+  <si>
+    <t>(less).white() { color: white; } /* объявление невыводимой примеси */
+.text { .white; }      /* применение примеси */</t>
+  </si>
+  <si>
+    <t>(css).btn-success {
+  background-color: green;
+}</t>
+  </si>
+  <si>
+    <t>.btn-error {
+  background-color: red;
+}</t>
+  </si>
+  <si>
+    <t>.btn-help {
+  background-image: url("/img/icons/question.png");
+}</t>
+  </si>
+  <si>
+    <t>.btn-info {
+  border: 2px solid blue;
+}</t>
+  </si>
+  <si>
+    <t>Кстати, тильда ~ в примере выше нужна для хитрого механизма экранирования Less. Без неё «склеивание» переменной и единицы измерения не сработает.</t>
+  </si>
+  <si>
+    <t>С помощью «переменных-вставок» можно формировать имена селекторов динамически в зависимости от определённых условий или в цикле.</t>
+  </si>
+  <si>
+    <t>Цикл</t>
+  </si>
+  <si>
+    <t>В Less нет специального синтаксиса для циклов. Но есть возможность вызывать примеси внутри самих себя. Так с помощью рекурсии и реализуются циклы. Рассмотрим пример:</t>
+  </si>
+  <si>
+    <t>(less).mixin(@n) {
+  .mixin(@n + 1);
+}
+.mixin(1);</t>
+  </si>
+  <si>
+    <t>В примере создаётся «бесконечный» цикл с увеличивающейся переменной-счётчиком, который никогда не закончится. Чтобы рекурсия всё-таки когда-нибудь прекращалась, к примеси добавляется условие выполнения:</t>
+  </si>
+  <si>
+    <t>Теперь цикл выполнится два раза, сработает условие выполнения примеси и произойдёт выход из рекурсии.</t>
+  </si>
+  <si>
+    <t>Для чего можно применять циклы? Например, для генерирования целых CSS-правил. Если в цикле в имени селектора использовать переменную-вставку из прошлой темы, то можно на выходе получить набор правил с разными селекторами. В примере ниже цикл исполняется три раза, в каждой итерации создастся правило с переменной-счётчиком @n в качестве суффикса селектора:</t>
+  </si>
+  <si>
+    <t>(less).mixin(@n) when (@n &gt; 0) {
+  .text-@{n} {
+  }</t>
+  </si>
+  <si>
+    <t>(css).text-3 {}
+.text-2 {}
+.text-1 {}</t>
+  </si>
+  <si>
+    <t>(less).mixin(@n) when (@n &gt; 0) {
+   .mixin(@n - 1);
+}
+.mixin(2); // Число задаем мы(кол-во циклов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .mixin(@n - 1);
+}
+.mixin(3); // Число задаем мы(кол-во циклов)</t>
+  </si>
+  <si>
+    <t>Цикл, часть 2</t>
+  </si>
+  <si>
+    <t>Внутри «цикла» переменную-счётчик можно использовать не только в условиях или в селекторах, но и в значениях свойств.</t>
+  </si>
+  <si>
+    <t>Можно раскрасить монстров в разные цвета в цикле с помощью функции spin.</t>
+  </si>
+  <si>
+    <t>Давайте подставим в качестве аргумента функции spin переменную-счётчик @n, увеличенную в несколько раз.</t>
+  </si>
+  <si>
+    <t>Знакомство с SVG</t>
+  </si>
+  <si>
+    <t>Привет, SVG!</t>
+  </si>
+  <si>
+    <t>SVG — это формат векторной графики. В отличие от растровой графики — PNG, GIF, JPEG — SVG может растягиваться и сжиматься без потери качества, то есть такие картинки будут одинаково чёткими и на обычных экранах, и на ретине.</t>
+  </si>
+  <si>
+    <t>Ещё одно из достоинств SVG — человекопонятный код: его можно не только прочитать, но и написать руками. Можно открыть файл и отредактировать его без использования графического редактора, можно самому написать простую картинку.</t>
+  </si>
+  <si>
+    <t>Также SVG-элементы можно оформить с помощью CSS и добавить им интерактивности с помощью JavaScript, а кроме того, SVG достаточно хорошо поддерживается всеми современными браузерами, и его уже можно активно использовать.</t>
+  </si>
+  <si>
+    <t>Давайте познакомимся с ним поближе. Вот простой пример кода:</t>
+  </si>
+  <si>
+    <t>SVG-элемент вставляется с помощью тега svg, внутри которого уже находится остальное содержимое: фигуры, картинки или текст.</t>
+  </si>
+  <si>
+    <t>Содержимое в этом примере — это кружок (circle) зелёного цвета (fill="yellowgreen").</t>
+  </si>
+  <si>
+    <t>SVG можно встраивать несколькими разными способами. Можно вставлять его непосредственно в код страницы.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;svg&gt;
+  &lt;circle r="50" cx="50%" cy="50%" fill="yellowgreen"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/svg&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;svg&gt;
+  &lt;circle r="50" cx="50%" cy="50%" fill="orange"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&lt;/circle&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/svg&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Рисуем прямоугольник</t>
+  </si>
+  <si>
+    <t>В SVG есть несколько способов нарисовать фигуру, для простых фигур есть свои теги.
+Например, прямоугольник рисуется с помощью тега rect. Код простого прямоугольника выглядит так:</t>
+  </si>
+  <si>
+    <t>&lt;rect width="150" height="100"/&gt;</t>
+  </si>
+  <si>
+    <t>​Обратите внимание: все теги в SVG должны быть закрыты, то есть должно быть так: &lt;rect .../&gt; или так: &lt;rect ...&gt;&lt;/rect&gt;. Мы будем использовать первый способ.</t>
+  </si>
+  <si>
+    <t>Атрибуты width и height управляют, соответственно, шириной и высотой фигуры. Значения можно задавать и в пикселях, и в процентах.</t>
+  </si>
+  <si>
+    <t>Для значений в пикселях после значения не нужно писать px, потому что пиксели — единица измерения, используемая в SVG по умолчанию. Проценты рассчитываются относительно размеров всего SVG-изображения: горизонтальные значения относительно ширины, вертикальные — относительно высоты.</t>
+  </si>
+  <si>
+    <t>В современных браузерах размерами и положением фигур нельзя управлять через CSS, но эта возможность появится в будущем.</t>
+  </si>
+  <si>
+    <t>Координаты прямоугольника</t>
+  </si>
+  <si>
+    <t>Чтобы задать координаты прямоугольника, используются атрибуты x и y:</t>
+  </si>
+  <si>
+    <t>&lt;rect width="50%" height="100" x="20" y="50"/&gt;</t>
+  </si>
+  <si>
+    <t>Координаты определяют положение верхнего левого угла фигуры.</t>
+  </si>
+  <si>
+    <t>Скругление углов</t>
+  </si>
+  <si>
+    <t>Скруглением углов прямоугольника управляют параметры rx и ry. Атрибут rx задаёт скругление по горизонтали, а ry — по вертикали. Если атрибут ry не задан, он будет равен rx. Пример кода:</t>
+  </si>
+  <si>
+    <t>&lt;rect width="50%" height="100" rx="50" ry="20"/&gt;</t>
+  </si>
+  <si>
+    <t>Многоугольники</t>
+  </si>
+  <si>
+    <t>В SVG можно рисовать не только четырёхугольники, но и многоугольники, это делается с помощью тега polygon. Пример кода:</t>
+  </si>
+  <si>
+    <t>В атрибуте points задаются координаты вершин фигуры. Каждая координата задаётся по x и y. Координаты в points нельзя задавать в процентах.</t>
+  </si>
+  <si>
+    <t>Рисуем окружность</t>
+  </si>
+  <si>
+    <t>Окружность рисуется с помощью тега circle. Пример кода:
+&lt;circle r="50"/&gt;</t>
+  </si>
+  <si>
+    <t>Атрибут r — радиус окружности.</t>
+  </si>
+  <si>
+    <t>В отличие от предыдущих фигур, положение окружности в пространстве определяется координатами центра фигуры: атрибут cx задаёт положение по горизонтальной оси, cy — по вертикальной.</t>
+  </si>
+  <si>
+    <t>По умолчанию координаты центра окружности равны 0,0, поэтому она находится в верхнем левом углу. Подвинем фигуру:</t>
+  </si>
+  <si>
+    <t>&lt;circle r="50" cx="100" cy="50%"/&gt;</t>
+  </si>
+  <si>
+    <t>Значения можно задавать как в пикселях, так и в процентах. Процентные значения рассчитываются относительно размеров SVG-элемента.</t>
+  </si>
+  <si>
+    <t>Радиус и координаты можно задавать только атрибутами, с помощью CSS это сделать нельзя.</t>
+  </si>
+  <si>
+    <t>Рисуем эллипс</t>
+  </si>
+  <si>
+    <t>&lt;ellipse rx="30" ry="40%"/&gt;</t>
+  </si>
+  <si>
+    <t>Эллипс рисуется почти так же, как круг, но у него два радиуса: по горизонтальной оси — rx, и по вертикальной — ry.</t>
+  </si>
+  <si>
+    <t>Расположение эллипса, так же как и для circle, задаётся с помощью cx и cy.</t>
+  </si>
+  <si>
+    <t>&lt;ellipse rx="30" ry="40%" cx="50%" cy="50%"/&gt;</t>
+  </si>
+  <si>
+    <t>Рисуем линии</t>
+  </si>
+  <si>
+    <t>Линии рисуются с помощью тега line. Координаты начала линии задаются атрибутами x1 и y1, координаты конца — атрибутами x2 и y2. Координаты можно задавать в процентах.
+Пример кода:</t>
+  </si>
+  <si>
+    <t>&lt;line x1="220" y1="10" x2="20" y2="130"/&gt;</t>
+  </si>
+  <si>
+    <t>Так как линия не образует фигуру с внутренним контуром, для отображения ей нужно задать не заливку, а обводку. Обводкой управляют два атрибута: stroke и stroke-width. Атрибут stroke задаёт цвет обводки, stroke-width — толщину линии.</t>
+  </si>
+  <si>
+    <t>&lt;line x1="220" y1="20" x2="20" y2="90" stroke="violet" stroke-width="5" /&gt;</t>
+  </si>
+  <si>
+    <t>Можно задать только цвет линии, тогда толщина обводки по умолчанию будет равна одному пикселю.</t>
+  </si>
+  <si>
+    <t>Рисуем ломаные линии</t>
+  </si>
+  <si>
+    <t>Ломаные линии рисуются с помощью тега polyline. Координаты точек на линии задаются в атрибуте points, как для polygon.
+Пример кода:</t>
+  </si>
+  <si>
+    <t>&lt;polyline points="10,135 100,10 55,135 10,10 105,135"/&gt;</t>
+  </si>
+  <si>
+    <t>Разница между polygon и polyline заключается в поведении обводки: у многоугольника обводка замыкается сама по себе (левая фигура), а у ломаной линии — остаётся незамкнутой (фигура справа):</t>
+  </si>
+  <si>
+    <t>&lt;svg width="200" height="200"&gt;
+  &lt;polyline points="50,180 100,20 150,180 20,80 180,80 50,180 100,20" stroke="red" stroke-width="5" fill="none"/&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;polygon points="70,5 90,41 136,48 103,80 111,126 70,105 29,126 36,80 5,48 48,41" fill="turquoise"/&gt;</t>
+  </si>
+  <si>
+    <t>Оформление SVG-фигур</t>
+  </si>
+  <si>
+    <t>Заливки</t>
+  </si>
+  <si>
+    <t>SVG-фигуры имеют богатые возможности оформления: им, как и HTML-элементам, можно задавать заливку цветом, градиентом или картинкой, но помимо этого также можно управлять отдельно прозрачностью заливки и обводки, а в качестве заливки можно использовать, например, текст.</t>
+  </si>
+  <si>
+    <t>Также интересные возможности имеет обводка. Например, можно управлять видом пунктирной обводки и сделать обводку точками, пунктиром или морзянкой, а ещё обводку можно сделать не только цветом, но также градиентом или картинкой.</t>
+  </si>
+  <si>
+    <t>Начнём с заливки. Если она не задана, по умолчанию фигура заполняется чёрным цветом:
+&lt;circle r="60" cx="150" cy="50%"&gt;&lt;/circle&gt;</t>
+  </si>
+  <si>
+    <t>Цвет заливки задаётся атрибутом fill:
+&lt;circle r="60" cx="150" cy="50%" fill="gold"&gt;&lt;/circle&gt;</t>
+  </si>
+  <si>
+    <t>либо аналогичным свойством в CSS:</t>
+  </si>
+  <si>
+    <t>circle {
+  fill: gold;
+}</t>
+  </si>
+  <si>
+    <t>Результат будет одинаковым:</t>
+  </si>
+  <si>
+    <t>Прозрачность заливки</t>
+  </si>
+  <si>
+    <t>Управлять прозрачностью заливки можно с помощью свойства fill-opacity. Прозрачность также можно задавать как атрибутом, так и через CSS.</t>
+  </si>
+  <si>
+    <t>Значение задаётся числом от 0 до 1, например:
+&lt;rect width="150" height="100" fill="gold" fill-opacity="0.5"&gt;&lt;/rect&gt;</t>
+  </si>
+  <si>
+    <t>rect {
+  fill: gold;
+  fill-opacity: 0.5;
+}</t>
+  </si>
+  <si>
+    <t>Прозрачность работает для всех видов заливок, в том числе для градиентов и паттернов:</t>
+  </si>
+  <si>
+    <t>Отсутствие заливки</t>
+  </si>
+  <si>
+    <t>Иногда бывает нужно полностью убрать заливку, например, если вам нужен только контур фигуры. Это можно сделать ключевым словом fill="none", результатом будет полная прозрачность фигуры.</t>
+  </si>
+  <si>
+    <t>Обводки</t>
+  </si>
+  <si>
+    <t>Обводки задаются с помощью нескольких атрибутов, причём цвет и толщина обводки задаются отдельно. Цвет задаётся атрибутом stroke:
+&lt;circle r="60" cx="150" cy="50%" fill="none" stroke="orange"&gt;&lt;/circle&gt;</t>
+  </si>
+  <si>
+    <t>либо через CSS:</t>
+  </si>
+  <si>
+    <t>circle {
+  stroke: orange;
+}</t>
+  </si>
+  <si>
+    <t>Результат будет одинаковым, у фигуры появится обводка толщиной один пиксель:</t>
+  </si>
+  <si>
+    <t>Толщина обводки</t>
+  </si>
+  <si>
+    <t>Для однопиксельной обводки достаточно задать только цвет в stroke. Если же нужно управлять толщиной обводки, это делается с помощью свойства stroke-width, также атрибутом или через CSS:</t>
+  </si>
+  <si>
+    <t>&lt;circle r="60" cx="150" cy="50%" fill="none" stroke="orange" stroke-width="5"&gt;&lt;/circle&gt;
+или:</t>
+  </si>
+  <si>
+    <t>circle {
+  stroke: orange;
+  stroke-width: 5;
+}</t>
+  </si>
+  <si>
+    <t>Короткой записи нет, поэтому цвет и толщина всегда задаются отдельно.</t>
+  </si>
+  <si>
+    <t>Если задавать значение в процентах, они будут рассчитываться не от размеров фигуры, а относительно размеров всего SVG, что может давать непредсказуемый результат.</t>
+  </si>
+  <si>
+    <t>Если обводке задана толщина, но не задан цвет, обводка не отобразится.</t>
+  </si>
+  <si>
+    <t>Обратите внимание, рамка не влияет на положение фигуры в пространстве, частично влияет на её размеры.</t>
+  </si>
+  <si>
+    <t>Прозрачность обводки</t>
+  </si>
+  <si>
+    <t>Прозрачность задаётся свойством stroke-opacity со значениями от 0 до 1, например: stroke-opacity="0.5".</t>
+  </si>
+  <si>
+    <t>Либо через CSS:</t>
+  </si>
+  <si>
+    <t>rect {
+  stroke-opacity: 0.5;
+}</t>
+  </si>
+  <si>
+    <t>Концы линий</t>
+  </si>
+  <si>
+    <t>В SVG можно указывать, как ведёт себя обводка на концах линий, это делается с помощью атрибута stroke-linecap. В примерах ниже мы добавили вспомогательные светлые линии с обводкой и показали возможные значения stroke-linecap:</t>
+  </si>
+  <si>
+    <t>1. butt — значение по умолчанию. С этим значением обводка просто заканчивается на концах линии:</t>
+  </si>
+  <si>
+    <t>2. round, с этим значением обводка равномерно закругляется вокруг концов линии:</t>
+  </si>
+  <si>
+    <t>3. square, с этим значением вокруг концов линии добавляется дополнительная обводка с прямоугольными краями:</t>
+  </si>
+  <si>
+    <t>В CSS внешним видом обводки на концах линий можно управлять с помощью аналогичного свойства stroke-linecap.</t>
+  </si>
+  <si>
+    <t>Вид сгибов</t>
+  </si>
+  <si>
+    <t>Атрибут stroke-linejoin позволяет управлять видом обводки на сгибах линий.
+Мы добавили «воображаемую» светлую линию в примеры. Итак, возможные значения stroke-linejoin:</t>
+  </si>
+  <si>
+    <t>1. miter — значение по умолчанию. Обводка в месте сгиба линии никак не видоизменяется.</t>
+  </si>
+  <si>
+    <t>2. round, обводка в месте сгиба линии равномерно закругляется.</t>
+  </si>
+  <si>
+    <t>3. bevel, обводка в месте сгиба линии складывается как лента.</t>
+  </si>
+  <si>
+    <t>В CSS внешним видом обводки на сгибах линий можно управлять с помощью аналогичного свойства stroke-linejoin.</t>
+  </si>
+  <si>
+    <t>Цвет можно задавать в любом удобном формате: fill="hsla(50, 100%, 50%, 0.5)", fill="#ff7700", fill="red".</t>
+  </si>
+  <si>
+    <t>Пунктирные линии, часть 1</t>
+  </si>
+  <si>
+    <t>В SVG можно управлять видом пунктирных линий, это делается с помощью атрибута stroke-dasharray. В качестве значения задаётся длина отрезков и пробелов между ними. Можно задать одно число, в этом случае получится пунктирная линия, состоящая из отрезков и пробелов одинаковой длины:</t>
+  </si>
+  <si>
+    <t>1. stroke-dasharray="15":</t>
+  </si>
+  <si>
+    <t>2. Если задать два числа stroke-dasharray="50 10", первое будет управлять длиной отрезков, второе — длиной пробелов:</t>
+  </si>
+  <si>
+    <t>3. Последовательность можно продолжить stroke-dasharray="1 2 3 5 8 13 21", в этом случае получится пунктирная линия со сложным ритмом:</t>
+  </si>
+  <si>
+    <t>Аналогично работает CSS-свойство stroke-dasharray.</t>
+  </si>
+  <si>
+    <t>Видом обводки круглой фигуры тоже можно управлять.</t>
+  </si>
+  <si>
+    <t>В отличие от прямоугольных форм сегменты пунктирной обводки круглой формы могут иметь неравномерную форму в зависимости от толщины обводки.</t>
+  </si>
+  <si>
+    <t>Сдвиг обводки</t>
+  </si>
+  <si>
+    <t>Пунктирной обводке с помощью атрибута stroke-dashoffset можно задать сдвиг. Возьмём такой пример:
+stroke-dasharray="50"</t>
+  </si>
+  <si>
+    <t>и добавим stroke-dashoffset:     stroke-dasharray="50" stroke-dashoffset="25"</t>
+  </si>
+  <si>
+    <t>Пунктиры обводки сдвинулись на заданный отрезок по направлению против часовой стрелки. Значение stroke-dashoffset может быть отрицательным, и тогда обводка будет смещаться по часовой стрелке.</t>
+  </si>
+  <si>
+    <t>Аналогично работает CSS-свойство stroke-dashoffset.</t>
+  </si>
+  <si>
+    <t>Размеры в SVG</t>
+  </si>
+  <si>
+    <t>Ширина и высота SVG</t>
+  </si>
+  <si>
+    <t>SVG ведёт себя иначе, чем привычные HTML-элементы: его содержимое отрисовывается на бесконечном холсте, и его размеры не зависят от содержимого. Видимая часть холста соответствует размерам SVG-элемента, эта область отрисовки называется вьюпорт.</t>
+  </si>
+  <si>
+    <t>При этом можно управлять как размерами SVG-элемента, так и поведением его содержимого: оно может отображаться целиком, обрезаться или сжиматься не сохраняя пропорции.</t>
+  </si>
+  <si>
+    <t>Если SVG просто вставить на страницу не указывая размеры, он отобразится размером 300×150 пикселей:
+&lt;svg&gt;  …  &lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>Поменять ширину и высоту можно с помощью width и height:</t>
+  </si>
+  <si>
+    <t>Задавать размеры можно как атрибутами, так и в CSS:</t>
+  </si>
+  <si>
+    <t>svg {
+  width: 350px;
+  height: 200px;
+}</t>
+  </si>
+  <si>
+    <t>Для размеров в CSS обязательно указывать единицы измерения. Для размеров в атрибутах, задаваемых в пикселях, единицы измерения не нужны.</t>
+  </si>
+  <si>
+    <t>Атрибут viewBox</t>
+  </si>
+  <si>
+    <t>Вы наверняка заметили, что изменение размеров SVG-элемента не влияет на его содержимое — потому что содержимое отрисовывается на бесконечном холсте, и непонятно какого размера область нужно растягивать или сжимать.</t>
+  </si>
+  <si>
+    <t>Это поведение можно изменить, задав размер области, которая будет тянуться, с помощью свойства viewBox (его можно задать только атрибутом):</t>
+  </si>
+  <si>
+    <t>&lt;svg width="350" height="200"&gt;  …
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg viewBox="0 0 237 300" width="350" height="200"&gt;  …
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>Первые два числа — координаты X и Y верхнего левого угла масштабируемой области, два других — её ширина и высота. Значения задаются в пикселях, единицы измерения указывать не нужно.</t>
+  </si>
+  <si>
+    <t>С вьюбоксом содержимое масштабируется, чтобы поместиться целиком в контейнер, и выравнивается по центру.</t>
+  </si>
+  <si>
+    <t>viewBox и размеры</t>
+  </si>
+  <si>
+    <t>SVG без размеров, но с viewBox, пытается занять всё доступное пространство. Это означает, что если на странице есть инлайновые иконки, размеры которым задаются в CSS, без CSS могут растянуться на весь экран.</t>
+  </si>
+  <si>
+    <t>Чтобы этого избежать, достаточно всем инлайновым иконкам в атрибутах явно задавать размеры по умолчанию, они потом легко переопределяются в CSS.</t>
+  </si>
+  <si>
+    <t>Атрибут preserveAspectRatio</t>
+  </si>
+  <si>
+    <t>По умолчанию содержимое SVG с viewBox масштабируется сохраняя пропорции, и если соотношения сторон вьюпорта и вьюбокса не совпадают, вокруг содержимого появляются поля:</t>
+  </si>
+  <si>
+    <t>С помощью свойства preserveAspectRatio это поведение можно изменять: например, значение none указывает, что сохранять пропорции не нужно:</t>
+  </si>
+  <si>
+    <t>&lt;svg viewBox="0 0 237 300" preserveAspectRatio="none"&gt;  …
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>В этом случае область, размеры которой заданы вьюбоксом, растягивается на всё доступное пространство вьюпорта:</t>
+  </si>
+  <si>
+    <t>preserveAspectRatio задаётся только атрибутом.</t>
+  </si>
+  <si>
+    <t>Резиновый фон с preserveAspectRatio</t>
+  </si>
+  <si>
+    <t>SVG, заданный в качестве фона, ведёт себя так же, как инлайновый SVG, поэтому, чтобы получить резиновый фон, используйте SVG с viewBox, но без размеров: в этом случае изображение подгонится под размер элемента, которому задан фон, и будет тянуться вместе с ним, сохраняя пропорции:</t>
+  </si>
+  <si>
+    <t>Это очень удобно для иконок: задайте размеры родительскому элементу, и иконка, заданная фоном, сама под него растянется.</t>
+  </si>
+  <si>
+    <t>Если же нужно, чтобы пропорции не сохранялись, добавьте preserveAspectRatio="none". Это пригодится для резиновых фонов:</t>
+  </si>
+  <si>
+    <t>Выравнивание в preserveAspectRatio</t>
+  </si>
+  <si>
+    <t>Содержимое SVG можно не только растягивать, но и сдвигать вправо-влево или вверх-вниз. Для этого нужно указать положение содержимого относительно осей X и Y, например xMinYMid:</t>
+  </si>
+  <si>
+    <t>&lt;svg viewBox="0 0 237 300" preserveAspectRatio="xMinYMid"&gt;  …
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>Возможные значения для каждой оси:</t>
+  </si>
+  <si>
+    <t>Положение задаётся двумя параметрами: первым всегда указывается положение по X, вторым по Y. Положение по оси Y всегда пишется с большой буквы. Оба параметра обязательны.</t>
+  </si>
+  <si>
+    <t>Значение по умолчанию — xMidYMid (содержимое выравнивается по середине большей стороны).</t>
+  </si>
+  <si>
+    <t>YMin           YMid           XMax</t>
+  </si>
+  <si>
+    <t>xMin                            xMid                             xMax</t>
+  </si>
+  <si>
+    <t>preserveAspectRatio и viewBox</t>
+  </si>
+  <si>
+    <t>Нужно помнить, что preserveAspectRatio не работает без viewBox. viewBox определяет масштабируемую область, preserveAspectRatio — как эта область выравнивается и как заполняет собой вьюпорт.</t>
+  </si>
+  <si>
+    <t>Также preserveAspectRatio не работает, если содержимое отрисовывается без полей (то есть соотношения сторон вьюпорта и вьюбокса совпадают), тогда в нём просто нет необходимости.</t>
+  </si>
+  <si>
+    <t>Заполнение пространства</t>
+  </si>
+  <si>
+    <t>Второй параметр в свойстве preserveAspectRatio задаёт поведение содержимого относительно вьюпорта, определяет как именно содержимое заполняет пространство:</t>
+  </si>
+  <si>
+    <t>&lt;svg viewBox="0 0 237 300" preserveAspectRatio="xMinYMin meet"&gt;  …
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>Возможные значения:</t>
+  </si>
+  <si>
+    <t>meet                slice</t>
+  </si>
+  <si>
+    <t>meet — содержимое умещается целиком, оставляя пустые поля (как при background-size: contain). Значение по умолчанию.</t>
+  </si>
+  <si>
+    <t>slice — содержимое заполняет собой всё пространство, при этом часть содержимого может быть обрезана (похоже на background-size: cover). Пропорции сохраняются в обоих случаях.</t>
+  </si>
+  <si>
+    <t>Заполнение — необязательный параметр, его можно не задавать.</t>
+  </si>
+  <si>
+    <t>Единицы измерения</t>
+  </si>
+  <si>
+    <t>Для базового использования SVG достаточно представлять как работают внешние размеры, но для создания более сложных конструкций нужно понимать как работают внутренние.</t>
+  </si>
+  <si>
+    <t>В SVG можно использовать разные единицы измерения, например: px, em, ex, pt, pc, cm, mm, in и проценты.</t>
+  </si>
+  <si>
+    <t>Также есть единицы системы координат — user space units, которые по умолчанию соответствуют пикселям, поэтому для размеров и координат в пикселях единицы измерения можно не указывать.</t>
+  </si>
+  <si>
+    <t>Системы координат</t>
+  </si>
+  <si>
+    <t>Изначально системы и их единицы измерения соответствуют друг другу:</t>
+  </si>
+  <si>
+    <t>В SVG существует две системы координат:</t>
+  </si>
+  <si>
+    <t>1. Система координат вьюпорта — viewport space
+2. Система координат содержимого — user space</t>
+  </si>
+  <si>
+    <t>Сейчас видно только систему координат содержимого (она показана красным), потому что системы совпадают и одна скрыта под другой.
+Если добавить вьюбокс или трансформацию, содержимое и его система координат начинают смещаться и масштабироваться:</t>
+  </si>
+  <si>
+    <t>&lt;svg width="350" height="200" viewBox="0 0 237 300"&gt;  …
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>Отсчёт координат содержимого начинается из левого верхнего угла (в точке 0,0). Без вьюбокса это левый верхний угол вьюпорта (бирюзовая точка), с вьюбоксом — левый верхний край вьюбокса (красная точка).</t>
+  </si>
+  <si>
+    <t>То есть теперь расположение содержимого будет отсчитываться относительно новой системы координат, а не от вьюпорта, из-за чего фигура оказывается не слева, а ближе к центру, а системы координат больше не совпадают.</t>
+  </si>
+  <si>
+    <t>Системы координат и трансформации</t>
+  </si>
+  <si>
+    <t>Трансформации тоже создают свою систему координат. Чтобы применить трансформацию ко всему содержимому, обернём его в группу (элемент &lt;g&gt;):</t>
+  </si>
+  <si>
+    <t>&lt;svg width="350" height="200"&gt;
+  &lt;g&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    …
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>Всё содержимое сместилось на 50 пикселей по вертикали и по горизонтали вместе с системой координат, и если теперь добавить ещё одну трансформацию, она уже рассчитывается от новой системы координат:</t>
+  </si>
+  <si>
+    <t>&lt;svg width="350" height="200"&gt;
+&lt;g transform="translate(50, 50) rotate(15)"&gt;</t>
+  </si>
+  <si>
+    <t>И добавим трансформацию:</t>
+  </si>
+  <si>
+    <t>&lt;svg width="350" height="200"&gt;
+  &lt;g transform="translate(50, 50)"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  …
+&lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>В SVG центр вращения по умолчанию находится в точке 0,0. До первой трансформации это был левый верхний угол вьюпорта, после трансформации — левый верхний угол трансформируемого содержимого. Вторая трансформация снова изменит систему координат группы.</t>
+  </si>
+  <si>
+    <t>SVG, у которого есть viewBox и нет размеров (width, height), растягивается на весь браузер(вьюпорт).</t>
+  </si>
+  <si>
+    <t>Мастерская: создаём меню</t>
+  </si>
+  <si>
+    <t>Ретромастерские</t>
+  </si>
+  <si>
+    <t>Инструменты автоматизации: препроцессор</t>
+  </si>
+  <si>
+    <t>Внутреннее устройство SVG</t>
+  </si>
+  <si>
+    <t>Сбрасываем стили списка</t>
+  </si>
+  <si>
+    <t>Каждый браузер по умолчанию отображает списки с внутренними и внешними отступами, а также добавляет маркеры к пунктам списка.</t>
+  </si>
+  <si>
+    <t>Нам нужно обнулить все отступы у списка, а также убрать маркеры.
+Маркерами списков управляет свойство list-style. Маркеры исчезнут, если ему задать значение none.</t>
+  </si>
+  <si>
+    <t>ul.main-menu {
+  margin: 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  padding: 0;
+  list-style: none;
+}</t>
+  </si>
+  <si>
+    <t>Позиционируем выпадающее подменю</t>
+  </si>
+  <si>
+    <t>Затем выпадающее подменю располагают в том месте, куда оно будет «выпадать». Лучше располагать так, чтобы оно немного «нависало» над родительским пунктом.</t>
+  </si>
+  <si>
+    <t>Также нужно установить для подменю z-index больше, чем у родительских пунктов, чтобы подменю располагалось выше и перекрывало их при появлении.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Так как </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>абсолютное позиционирование сбрасывает ширину</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, то можно установить ширину для подменю.</t>
+    </r>
+  </si>
+  <si>
+    <t>Отображаем подменю при наведении</t>
+  </si>
+  <si>
+    <t>Последний этап — добавление интерактивности.
+Сначала прячем выпадающее подменю по умолчанию, с помощью display: none;.</t>
+  </si>
+  <si>
+    <t>Затем делаем так, чтобы при наведении курсора на пункт меню, внутри которого расположено подменю, оно появлялось. Для этого используем контекстный селектор в сочетании с псевдоклассом :hover и display: block;.</t>
+  </si>
+  <si>
+    <t>paginator</t>
+  </si>
+  <si>
+    <t>пагинатор(переключатель страниц)</t>
+  </si>
+  <si>
+    <t>Практика: фотоприложение с фильтрами</t>
+  </si>
+  <si>
+    <t>Кекстаграм: Начало. CSS-фильтры</t>
+  </si>
+  <si>
+    <t>Яркость и контрастность, brightness и contrast</t>
+  </si>
+  <si>
+    <t>CSS-фильтры позволяют применить визуальные эффекты к элементам страницы. Фильтры обычно применяют к изображениям, фонам или рамкам, а иногда и к другим элементам.</t>
+  </si>
+  <si>
+    <t>Фильтры применяются к элементу до того, как он будет отображён, поэтому количество фильтров влияет на скорость загрузки страницы.
+Фильтры задаются с помощью свойства filter. Начнём знакомство с ними.</t>
+  </si>
+  <si>
+    <t>Яркость — brightness. Допустимы числовые значения от 0 и выше или проценты. Со значением фильтра 1 или 100% элемент отображается без изменений.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: brightness(2); /* увеличивает яркость вдвое */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: brightness(10%); /* снижает яркость до 10% */
+  filter: brightness(150%); /* увеличивает яркость на 50% */
+}</t>
+  </si>
+  <si>
+    <t>Контрастность — contrast. Как и у фильтра яркости в качестве значения можно использовать числа или проценты.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: contrast(0.5); /* снижает контрастность наполовину */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: contrast(50%); /* тоже снижает контрастность до 50% */
+ }</t>
+  </si>
+  <si>
+    <t>Бесцветность и сепия, grayscale и sepia</t>
+  </si>
+  <si>
+    <t>Следующие два фильтра исторически относятся к фотографии: изначально фотографии были чёрно-белые или коричневатого оттенка краски сепии.</t>
+  </si>
+  <si>
+    <t>С помощью фильтров бесцветности и сепии фотографиям можно придать эффект «старины».</t>
+  </si>
+  <si>
+    <t>Бесцветность — grayscale. Допустимы числовые значения от 0 до 1 и процентные значения от 0% до 100%. При значениях 0 или 0% элемент отображается без изменений.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: grayscale(1); /* полное обесцвечивание */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: grayscale(50%); /* обесцвечивание наполовину */
+}</t>
+  </si>
+  <si>
+    <t>Сепия — sepia. Допустимые значения такие же, как у grayscale.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: sepia(1); /* полный эффект сепии */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: sepia(25%); /* эффект сепии применяется на 25% */
+}</t>
+  </si>
+  <si>
+    <t>Инверсия и насыщенность, invert и saturate</t>
+  </si>
+  <si>
+    <t>Ещё два фильтра для цветовых эффектов — инверсия цвета и цветовая насыщенность. Как понятно из названия, при инверсии цвета меняются на противоположные, и мы получаем «негатив» картинки, а цветовая насыщенность делает краски ярче и противоположна по смыслу фильтру обесцвечивания.</t>
+  </si>
+  <si>
+    <t>Инверсия цвета — invert. Допустимые простые числовые значения от 0 до 1 и процентные значения от 0% до 100%.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: invert(1); /* полная инверсия цвета */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: invert(50%); /* инверсия цвета наполовину, все цвета серые */
+}</t>
+  </si>
+  <si>
+    <t>Цветовая насыщенность — saturate. Допустимые простые числовые значения от 0 и выше и процентные значения от 0% и выше. При значении фильтра 1 или 100% элемент отображается без изменений. Если установить нулевое значение, то картинка обесцветится, как при использовании фильтра grayscale.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: saturate(2); /* цвета ярче вдвое */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: saturate(50%); /* цвета вдвое бледнее */
+  filter: saturate(0); /* обесцвеченная картинка */
+}</t>
+  </si>
+  <si>
+    <t>Поворот цвета, hue-rotate</t>
+  </si>
+  <si>
+    <t>Ещё один интересный цветовой фильтр — поворот цвета hue-rotate. Если представить все цвета в виде круга, то этим фильтром можно повернуть цвет картинки вдоль круга на определённый угол.</t>
+  </si>
+  <si>
+    <t>Кстати, похожую функцию цветового поворота мы рассматривали в части по препроцессору Less.</t>
+  </si>
+  <si>
+    <t>Итак, поворот цвета — hue-rotate. Значение задаётся в градусах от 0deg до 360deg. Допускается также использование отрицательного угла. Положительное значение будет вращать цвет по часовой стрелке, а отрицательное — против. При значении фильтра 0deg элемент отображается без изменений. Примеры:</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: hue-rotate(90deg); /* поворот на 90 градусов по часовой */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: hue-rotate(-90deg); /* поворот на 90 градусов обратно */
+}</t>
+  </si>
+  <si>
+    <t>Размытость и непрозрачность, blur и opacity</t>
+  </si>
+  <si>
+    <t>Не все фильтры работают с цветом. Например, фильтр размытости создаёт у фотографии эффект расфокусировки, а фильтр непрозрачности может сделать объект частично прозрачным.</t>
+  </si>
+  <si>
+    <t>Фильтр blur задаёт размытость объекта. Его значение задаётся в пикселях от 0px и выше.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: blur(5px); /* размытость в 5px */
+}</t>
+  </si>
+  <si>
+    <t>Фильтр opacity задаёт уровень непрозрачности объекта. Работает точно так же, как свойство opacity. Допустимые значения от 0 до 1 или от 0% до 100%.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: opacity(0.5); /* объект наполовину непрозрачный */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: opacity(0%); /* полностью прозрачный объект */
+}</t>
+  </si>
+  <si>
+    <t>Между фильтром и свойством opacity всё же есть «невидимое» отличие. Некоторые браузеры используют аппаратное ускорение для отрисовки фильтров, а для свойства opacity ускорение не используется. Поэтому применение фильтра opacity может существенно улучшить производительность по сравнению с аналогичным свойством.</t>
+  </si>
+  <si>
+    <t>Тень, drop-shadow</t>
+  </si>
+  <si>
+    <t>С помощью фильтра drop-shadow можно добавить тень к объекту. Синтаксис фильтра такой же, как и у свойства box-shadow.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: drop-shadow(10px 5px 3px #000000);  /* чёрная тень, смещённая на 10px по горизонтали и на 5px по вертикали, с радиусом размытия 3px */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: drop-shadow(0px 0px 5px green);  /* несмещённая зелёная тень с радиусом размытия 5px */
+}</t>
+  </si>
+  <si>
+    <t>В отличие от box-shadow фильтр тени не поддерживает параметр inset для внутренней тени.</t>
+  </si>
+  <si>
+    <t>Кроме того, на момент написания части в фильтре тени не поддерживается растяжение.</t>
+  </si>
+  <si>
+    <t>Отличие box-shadow и drop-shadow</t>
+  </si>
+  <si>
+    <t>Фильтр тени имеет преимущества перед свойством box-shadow.</t>
+  </si>
+  <si>
+    <t>Во-первых, при отрисовке в браузере фильтра drop-shadow используется аппаратное ускорение, что улучшает производительность. А дополнительного ускорения при использовании свойства box-shadow в браузере нет.</t>
+  </si>
+  <si>
+    <t>Во-вторых, фильтр drop-shadow применяется к непрозрачному контуру картинок, а прозрачные области игнорируются, в то время как box-shadow задает прямоугольную тень по границе всего изображения.</t>
+  </si>
+  <si>
+    <t>На примере полупрозрачной PNG-картинки можно оценить, как работают эти два свойства. Но стоит задать такой картинке непрозрачный фон, как поведение фильтра изменится.</t>
+  </si>
+  <si>
+    <t>Нужно заметить, что фильтры пришли в CSS из SVG, поэтому drop-shadow и box-shadow различаются в реализации. То есть с одними и теми же параметрами тени будут выглядеть по-разному.</t>
+  </si>
+  <si>
+    <t>Применение CSS-фильтров к тексту</t>
+  </si>
+  <si>
+    <t>Фильтры можно применять без ограничений не только к картинкам, но и к другим HTML-элементам.</t>
+  </si>
+  <si>
+    <t>Комбинация фильтров</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: sepia(50%);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: sepia(50%) blur(5px);
+  filter: sepia(50%) blur(5px) opacity(50%);
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">К одному и тому же блоку можно применить несколько фильтров одновременно. Для этого все фильтры просто перечисляются </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>через</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>пробел</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> после слова filter:</t>
+    </r>
+  </si>
+  <si>
+    <t>Стоит помнить, что перечисление фильтров в разном порядке даёт разный результат. Это так, потому что каждый следующий фильтр применяется уже к изображению с эффектом.</t>
+  </si>
+  <si>
+    <t>Комбинация фильтров drop-shadow</t>
+  </si>
+  <si>
+    <t>Если применить несколько фильтров drop-shadow к одному блоку, то их комбинация даст интересный эффект. Так как каждый следующий фильтр в комбинации применяется к изображению с предыдущими фильтрами, то ещё одна тень у блока с тенью создаст двойную тень.</t>
+  </si>
+  <si>
+    <t>.effect {
+  filter: drop-shadow(0px 0px 0px black);  /* обычная тень */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter: drop-shadow(0px 0px 0px black) drop-shadow(0px 0px 0px black);  /* двойная тень */
+}</t>
+  </si>
+  <si>
+    <t>В этом ещё одно отличие фильтра drop-shadow от свойства box-shadow.</t>
+  </si>
+  <si>
+    <t>Кстати, фильтр drop-shadow бывает полезно применять не только к изображениям, но и к обычным элементам. Тень будет, как и в случае с картинками, идти по непрозрачному контуру. В область тени включаются также псевдоэлементы блока.</t>
+  </si>
+  <si>
+    <t>Анимация CSS-фильтров</t>
+  </si>
+  <si>
+    <t>К CSS-фильтрам можно применять анимации и плавные переходы.</t>
+  </si>
+  <si>
+    <t>Например, очень оригинальный эффект получится, если применить бесконечную анимацию к фильтру поворота цвета hue-rotate на цветной фотографии.</t>
+  </si>
+  <si>
+    <t>Плавные переходы и CSS-фильтры</t>
+  </si>
+  <si>
+    <t>Теперь рассмотрим применение к фильтрам плавных переходов.</t>
+  </si>
+  <si>
+    <t>К примеру, можно фильтрами сделать фотографию чёрно-белой и размытой, по наведению убрать эффект фильтра, а само визуальное изменение сделать плавным.</t>
+  </si>
+  <si>
+    <t>Кстати, у свойства filter значение по умолчанию — none. Воспользуемся им для отмены эффекта фильтра по наведению на фотографию.</t>
+  </si>
+  <si>
+    <t>Кекстаграм: Эпилог. JavaScript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27273,8 +28609,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -27302,6 +28658,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27339,7 +28701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -27529,6 +28891,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -27648,13 +29037,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>21981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>915865</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>175846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -27680,6 +29069,1908 @@
         <a:xfrm>
           <a:off x="0" y="8975481"/>
           <a:ext cx="915865" cy="915865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1053884</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>183172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9737481"/>
+          <a:ext cx="1053884" cy="542191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1047568</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8777654"/>
+          <a:ext cx="1047568" cy="542191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>21983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1040277</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>174458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2" y="11832983"/>
+          <a:ext cx="1040275" cy="533475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1077058</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>186080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12778154"/>
+          <a:ext cx="1077058" cy="552426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1186962</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>185077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14873654"/>
+          <a:ext cx="1186962" cy="551423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1069731</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>182235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16397655"/>
+          <a:ext cx="1069731" cy="548580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1216269</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>184286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17350154"/>
+          <a:ext cx="1216269" cy="550632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6740754</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7290273</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>564173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6740754" y="17921654"/>
+          <a:ext cx="549519" cy="549519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1062405</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>181883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="7634655"/>
+          <a:ext cx="1062404" cy="548228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>14656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1069999</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>182373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2" y="20779156"/>
+          <a:ext cx="1069997" cy="548717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1068128</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2" y="22684154"/>
+          <a:ext cx="1068126" cy="549519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1063138</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>175512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25351154"/>
+          <a:ext cx="1063138" cy="541858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>181189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26494155"/>
+          <a:ext cx="1047750" cy="547534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1062405</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>185287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="28589654"/>
+          <a:ext cx="1062404" cy="551633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>174429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30875655"/>
+          <a:ext cx="1047750" cy="540774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1062404</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>180229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32780654"/>
+          <a:ext cx="1062404" cy="546575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1252904</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>178675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="34876155"/>
+          <a:ext cx="1252904" cy="354520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1274885</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>186057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35447654"/>
+          <a:ext cx="1274885" cy="361903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1230923</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="36019154"/>
+          <a:ext cx="1230922" cy="359019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1091712</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>182097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37352654"/>
+          <a:ext cx="1091712" cy="548443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1084385</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>183629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38114654"/>
+          <a:ext cx="1084385" cy="549975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1062405</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>180033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="38876654"/>
+          <a:ext cx="1062404" cy="546379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>974481</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>181875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="40591154"/>
+          <a:ext cx="974481" cy="357721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>949971</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="41162655"/>
+          <a:ext cx="949970" cy="351691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>989135</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>184601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Рисунок 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41924654"/>
+          <a:ext cx="989135" cy="360447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1223597</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>184272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Рисунок 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="43639154"/>
+          <a:ext cx="1223596" cy="550618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1230923</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>186791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44401155"/>
+          <a:ext cx="1230923" cy="553136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>184055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47258655"/>
+          <a:ext cx="1047750" cy="550400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937846</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>182891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48592155"/>
+          <a:ext cx="937846" cy="549236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>180947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Рисунок 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="52021154"/>
+          <a:ext cx="952500" cy="547293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>180947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="54497654"/>
+          <a:ext cx="952500" cy="547293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1245577</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>177303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="56021654"/>
+          <a:ext cx="1245577" cy="543649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1106365</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>184239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Рисунок 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="57545654"/>
+          <a:ext cx="1106365" cy="550585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1128347</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>184829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="58498155"/>
+          <a:ext cx="1128346" cy="551174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>184743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="60022154"/>
+          <a:ext cx="1238250" cy="551089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1567963</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>184681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Рисунок 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="61736654"/>
+          <a:ext cx="1567962" cy="741527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3304443</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>181211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="60974654"/>
+          <a:ext cx="3304442" cy="547557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1487365</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>184531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Рисунок 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="65356155"/>
+          <a:ext cx="1487365" cy="550876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1274885</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>183869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Рисунок 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="69166154"/>
+          <a:ext cx="1274885" cy="740715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1267558</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>185481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Рисунок 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="70690154"/>
+          <a:ext cx="1267558" cy="742327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1268121</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Рисунок 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="74881154"/>
+          <a:ext cx="1268120" cy="732692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1267559</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Рисунок 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="76976654"/>
+          <a:ext cx="1267558" cy="739409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3956540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4903976</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>359019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3956540" y="10858501"/>
+          <a:ext cx="947436" cy="930518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29269,10 +32560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView topLeftCell="A107" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30055,6 +33346,14 @@
       </c>
       <c r="B115" t="s">
         <v>1330</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2300</v>
       </c>
     </row>
   </sheetData>
@@ -32244,10 +35543,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -33157,8 +36456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A191"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34286,8 +37585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34862,28 +38161,28 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
+      <c r="A46" s="75"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
+      <c r="A47" s="75"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
+      <c r="A48" s="75"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
+      <c r="A49" s="75"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
+      <c r="A50" s="75"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
+      <c r="A51" s="75"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
+      <c r="A52" s="75"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
+      <c r="A53" s="75"/>
     </row>
     <row r="54" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
@@ -36398,11 +39697,12 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A116"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:A194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -36410,584 +39710,2380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="73" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+    <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
         <v>1916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+    <row r="13" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+    <row r="17" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+    <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>1931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="64" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="64" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
         <v>1937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="64" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
         <v>1942</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="64" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
         <v>1946</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
         <v>1952</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
+    <row r="49" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+    <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
         <v>1958</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
+    <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
+    <row r="53" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+    <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
         <v>1962</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+    <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
         <v>1965</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
+    <row r="57" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="64" t="s">
         <v>1964</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
         <v>1966</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
+    <row r="60" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
         <v>1968</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="s">
+    <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
         <v>1969</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
+    <row r="63" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
         <v>1970</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
         <v>1973</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="64" t="s">
         <v>1975</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="64" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
         <v>1976</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+    <row r="70" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="64" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
         <v>1978</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="64" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="59" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
         <v>1985</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="64" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
         <v>1987</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="64" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="64" t="s">
-        <v>1989</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="s">
-        <v>1990</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="s">
-        <v>1992</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="s">
         <v>1993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="64" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="64" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="64" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+    <row r="98" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="64" t="s">
+    <row r="99" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="64" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="64" t="s">
+    <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="64" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="s">
         <v>2006</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="64" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="64" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="64" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="64" t="s">
         <v>2011</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="64" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="64" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="64" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="64" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="64" t="s">
-        <v>2016</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="64" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="64" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="64" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+    <row r="116" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="64" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="64" t="s">
+    <row r="117" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="64" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="64" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="64" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="64" t="s">
+    <row r="120" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="64" t="s">
         <v>2021</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="64" t="s">
+    <row r="121" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="64" t="s">
         <v>2022</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="64" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="64" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="64" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="64" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="64" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="64" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="64" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="64" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="64" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="64" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="64" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="64" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="64" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="64" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="64" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="64" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="64" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="64" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="64" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="64" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="64" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="64" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="64" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="64" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="64" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="64" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="64" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="64" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="64" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="64" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="64" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="64" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="64" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="64" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="64" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="18" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="64" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="64" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="64" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="64" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="64" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="18" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="64" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="64" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="64" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="65" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="64" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="64" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="64" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="64" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="64" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="64" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="64" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="64" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="64" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="64" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="18" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="64" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" s="64" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="64" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="64" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="64" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="64" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="64" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="64" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="64" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="18" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="64" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="64" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="64" t="s">
+        <v>2099</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:A310"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="124.7109375" style="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="66" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+    </row>
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="66" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="66" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="67"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="67"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="66" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="66" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="66" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="67"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="67"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="66" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="66" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="66" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="66" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="67"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="67"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="67"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="66" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="66" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="67"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="67"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="67"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="66" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="66" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="66" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="66" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="67"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="67"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="67"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="66" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="66" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="66" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="67"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="67"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="67"/>
+    </row>
+    <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="66" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="67"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="67"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="67"/>
+    </row>
+    <row r="78" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="66" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="59" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="66" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="66" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="66" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="67"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="67"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="67"/>
+    </row>
+    <row r="88" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="66" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="66" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="66" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="66" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="67"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="67"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="67"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="66" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="66" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="66" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="66" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="66" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="67"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="67"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="67"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="66" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="67"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="67"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="67"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="66" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="66" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="66" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="66" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="67"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="67"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="67"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="66" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="66" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="66" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="67"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="67"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="67"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="66" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="66" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="66" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="66" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="66" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="67"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="67"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="67"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="66" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="66" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="66" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="66" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="67"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="67"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="66" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="67"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="67"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="66" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="67"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="67"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="66" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="66" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="66" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="67"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="67"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="67"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="66" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="67"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="67"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="67"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="66" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="67"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="67"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="67"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="66" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="66" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="66" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="67"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="67"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="66" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="67"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="67"/>
+    </row>
+    <row r="170" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="66" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="67"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="67"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="66" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="66" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="66" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="18" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="66" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="67"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="67"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="67"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="66" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="67"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="67"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="67"/>
+    </row>
+    <row r="185" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="66" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="66" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="59" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="18" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="66" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="66" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="66" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="67"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="67"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="67"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="66" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="66" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="67"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="67"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="67"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="66" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A202" s="66" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="66" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="18" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="66" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="66" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="66" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="66" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="67"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="67"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="67"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="66" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="66" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="18" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="66" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="66" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="18" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="66" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="67"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="67"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="67"/>
+    </row>
+    <row r="222" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="66" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="66" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="66" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="67"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="67"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="67"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="66" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="18" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="66" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="67"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="67"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="67"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="66" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="66" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="67"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="67"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="67"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="18" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="66" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="66" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="67"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="67"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="67"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="66" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="66" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="67"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="67"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="67"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="68" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="67"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="67"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="67"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="67"/>
+    </row>
+    <row r="255" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="66" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="66" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="18" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="66" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="66" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="18" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="66" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="66" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="66" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="68" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="67"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="67"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="67"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="66" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="66" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="66" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="18" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="66" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="66" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="66" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="18" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="68" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="66" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="66" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="66" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="67"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="67"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="67"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="67"/>
+    </row>
+    <row r="284" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="66" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="66" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="67"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="67"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="67"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="67"/>
+    </row>
+    <row r="290" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="66" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="66" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="18" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" s="66" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="66" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A295" s="66" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="68" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="66" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A298" s="66" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="67"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="67"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="67"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="67"/>
+    </row>
+    <row r="303" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="66" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="66" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A305" s="66" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="67"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="67"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="67"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="67"/>
+    </row>
+    <row r="310" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A310" s="66" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="125.5703125" style="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37071,6 +42167,401 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="124.7109375" style="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="71" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="71" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="71" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="71" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="71" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="71" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="71" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="71" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="71" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="71" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="71" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="71" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="71" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="71" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="71" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="71" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="71" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="71" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="71" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="71" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="71" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="71" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="71" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="71" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="71" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="71" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="71" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="71" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="71" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="71" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="71" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="59" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/class.xlsx
+++ b/class.xlsx
@@ -28471,7 +28471,7 @@
     <t>Кстати, у свойства filter значение по умолчанию — none. Воспользуемся им для отмены эффекта фильтра по наведению на фотографию.</t>
   </si>
   <si>
-    <t>Кекстаграм: Эпилог. JavaScript</t>
+    <t>Кекстаграм: Эпилог. JavaScript?</t>
   </si>
 </sst>
 </file>

--- a/class.xlsx
+++ b/class.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="12345" firstSheet="21" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="12345" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="2377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="2378">
   <si>
     <t>main-header</t>
   </si>
@@ -28474,9 +28474,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+  &lt;link rel="icon" href="favicon.ico"&gt;
+  &lt;link rel="icon" href="img/favicon/icon.svg" type="image/svg+xml"&gt;
+  &lt;link rel="apple-touch-icon" href="favicon/180.png"&gt;
+  &lt;link rel="manifest" href="manifest.webmanifest"&gt;
   &lt;link rel="stylesheet" href="css/style.css"&gt;
 &lt;/head&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>Заглушка для картинки
+https://via.placeholder.com/150x100</t>
   </si>
 </sst>
 </file>
@@ -28706,7 +28714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -28917,6 +28925,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -32351,7 +32362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -32386,7 +32397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -35457,10 +35468,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35509,6 +35520,11 @@
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>2377</v>
       </c>
     </row>
   </sheetData>
@@ -35554,10 +35570,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -38179,28 +38195,28 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+      <c r="A46" s="78"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
+      <c r="A50" s="78"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+      <c r="A51" s="78"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
+      <c r="A52" s="78"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
+      <c r="A53" s="78"/>
     </row>
     <row r="54" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
@@ -40706,7 +40722,7 @@
   </sheetPr>
   <dimension ref="A1:A310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A298" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
@@ -45366,14 +45382,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>2376</v>
       </c>
